--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1842412.947878533</v>
+        <v>1841615.94565944</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1519700.805950813</v>
+        <v>1519700.805950812</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681853</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5206446984474</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>234.4089674616508</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9222704623398</v>
+        <v>72.93822948672386</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.0980981875933</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>171.7659989069141</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.74708277626895</v>
+        <v>62.74708277626894</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.68127993509579</v>
       </c>
       <c r="T11" t="n">
         <v>98.46646388661998</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.4913064582882</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.17636031739724</v>
+        <v>43.17636031739725</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>48.82981863445342</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>23.91665828169799</v>
       </c>
       <c r="E12" t="n">
-        <v>33.83766841422624</v>
+        <v>33.83766841422626</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.31046679060172</v>
       </c>
       <c r="G12" t="n">
-        <v>13.54597061950547</v>
+        <v>135.7417359124531</v>
       </c>
       <c r="H12" t="n">
-        <v>38.85867459567722</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.81243295307821</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.21888289313682</v>
       </c>
       <c r="S12" t="n">
-        <v>163.733352374436</v>
+        <v>79.98981173710678</v>
       </c>
       <c r="T12" t="n">
         <v>197.2479929833146</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4428937286885</v>
+        <v>224.6386590216361</v>
       </c>
       <c r="V12" t="n">
-        <v>109.7129657467075</v>
+        <v>109.7129657467076</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7935814570525</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.26586431553068</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.88792619773622</v>
+        <v>57.88792619773623</v>
       </c>
       <c r="C13" t="n">
-        <v>45.14078763825475</v>
+        <v>45.14078763825476</v>
       </c>
       <c r="D13" t="n">
-        <v>26.80980122157177</v>
+        <v>26.80980122157179</v>
       </c>
       <c r="E13" t="n">
-        <v>24.77885888025159</v>
+        <v>24.7788588802516</v>
       </c>
       <c r="F13" t="n">
-        <v>23.96325611685691</v>
+        <v>23.96325611685693</v>
       </c>
       <c r="G13" t="n">
-        <v>45.45784504558794</v>
+        <v>45.45784504558796</v>
       </c>
       <c r="H13" t="n">
         <v>37.3402425108971</v>
@@ -1579,7 +1579,7 @@
         <v>96.04917839534271</v>
       </c>
       <c r="T13" t="n">
-        <v>105.1284285345683</v>
+        <v>105.1284285345684</v>
       </c>
       <c r="U13" t="n">
         <v>163.8436335385763</v>
@@ -1588,13 +1588,13 @@
         <v>130.7405857739916</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8968115944679</v>
+        <v>163.896811594468</v>
       </c>
       <c r="X13" t="n">
         <v>103.9445946393617</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.55290857482063</v>
+        <v>96.55290857482065</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.14095521902489</v>
+        <v>261.5206446984475</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.7893303859951</v>
       </c>
       <c r="D14" t="n">
         <v>234.4089674616508</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9222704623398</v>
+        <v>28.76537187283058</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1329263206258</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.74708277626891</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68127993509577</v>
+        <v>71.68127993509579</v>
       </c>
       <c r="T14" t="n">
-        <v>98.46646388661998</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>129.2399123803762</v>
@@ -1667,7 +1667,7 @@
         <v>206.3374562295718</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.334351707607</v>
       </c>
       <c r="X14" t="n">
         <v>248.6658338382218</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.17636031739724</v>
+        <v>43.17636031739725</v>
       </c>
       <c r="C15" t="n">
-        <v>48.8298186344534</v>
+        <v>48.82981863445342</v>
       </c>
       <c r="D15" t="n">
-        <v>122.2039141369549</v>
+        <v>23.91665828169799</v>
       </c>
       <c r="E15" t="n">
-        <v>33.83766841422624</v>
+        <v>33.83766841422626</v>
       </c>
       <c r="F15" t="n">
-        <v>21.31046679060171</v>
+        <v>59.76269144622</v>
       </c>
       <c r="G15" t="n">
-        <v>13.54597061950547</v>
+        <v>13.54597061950549</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7440664331786</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.8124329530782</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>163.7333523744359</v>
       </c>
       <c r="T15" t="n">
-        <v>75.052227690367</v>
+        <v>197.2479929833146</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4428937286885</v>
+        <v>224.6386590216361</v>
       </c>
       <c r="V15" t="n">
-        <v>109.7129657467075</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -1752,7 +1752,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.47538612563845</v>
       </c>
     </row>
     <row r="16">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.88792619773622</v>
+        <v>57.88792619773623</v>
       </c>
       <c r="C16" t="n">
-        <v>45.14078763825475</v>
+        <v>45.14078763825476</v>
       </c>
       <c r="D16" t="n">
-        <v>26.80980122157177</v>
+        <v>26.80980122157179</v>
       </c>
       <c r="E16" t="n">
-        <v>24.77885888025159</v>
+        <v>24.7788588802516</v>
       </c>
       <c r="F16" t="n">
-        <v>23.96325611685691</v>
+        <v>23.96325611685693</v>
       </c>
       <c r="G16" t="n">
         <v>45.45784504558794</v>
@@ -1783,7 +1783,7 @@
         <v>37.34024251089708</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46626167789293</v>
+        <v>24.46626167789294</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58492679576424</v>
+        <v>40.58492679576425</v>
       </c>
       <c r="S16" t="n">
-        <v>96.04917839534269</v>
+        <v>96.04917839534271</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1284285345683</v>
+        <v>105.1284285345684</v>
       </c>
       <c r="U16" t="n">
         <v>163.8436335385763</v>
@@ -1825,13 +1825,13 @@
         <v>130.7405857739916</v>
       </c>
       <c r="W16" t="n">
-        <v>163.8968115944679</v>
+        <v>163.896811594468</v>
       </c>
       <c r="X16" t="n">
         <v>103.9445946393617</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.55290857482063</v>
+        <v>96.55290857482065</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>133.3457645856799</v>
       </c>
       <c r="E17" t="n">
-        <v>159.859067586369</v>
+        <v>159.8590675863692</v>
       </c>
       <c r="F17" t="n">
         <v>184.0348953116224</v>
@@ -1923,16 +1923,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.21888289313682</v>
       </c>
       <c r="S18" t="n">
         <v>163.7333523744359</v>
@@ -1977,7 +1977,7 @@
         <v>197.2479929833146</v>
       </c>
       <c r="U18" t="n">
-        <v>1.379690852717663</v>
+        <v>74.98290978212775</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -1986,7 +1986,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>113.3817398461669</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>49.60239694363799</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.7614183534425</v>
       </c>
       <c r="T19" t="n">
         <v>4.065225658597454</v>
@@ -2096,7 +2096,7 @@
         <v>191.0697234446548</v>
       </c>
       <c r="H20" t="n">
-        <v>109.497282014759</v>
+        <v>109.4972820147589</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.17670950440532</v>
+        <v>28.17670950440534</v>
       </c>
       <c r="V20" t="n">
         <v>105.2742533536009</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.670785462446359</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7440664331786</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.21888289313682</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7333523744359</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2479929833146</v>
+        <v>127.0958114764666</v>
       </c>
       <c r="U21" t="n">
         <v>224.6386590216361</v>
@@ -2223,10 +2223,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>15.67772686275868</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.00071072153355</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.7607076319089</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>93.79091613019631</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.21888289313682</v>
       </c>
       <c r="S24" t="n">
         <v>163.7333523744359</v>
@@ -2454,16 +2454,16 @@
         <v>224.6386590216361</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>8.649762870736652</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>113.0536251315337</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>162.7806920887118</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>4.065225658597454</v>
       </c>
       <c r="U25" t="n">
-        <v>258.5418490160479</v>
+        <v>62.78043066260542</v>
       </c>
       <c r="V25" t="n">
         <v>29.67738289802068</v>
@@ -2539,7 +2539,7 @@
         <v>62.83360871849706</v>
       </c>
       <c r="X25" t="n">
-        <v>2.881391763390781</v>
+        <v>35.86211802812142</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>224.8733633698367</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4930004454928</v>
+        <v>214.4930004454925</v>
       </c>
       <c r="E26" t="n">
         <v>241.0063034461815</v>
@@ -2606,7 +2606,7 @@
         <v>51.76531291893744</v>
       </c>
       <c r="T26" t="n">
-        <v>78.55049687046163</v>
+        <v>78.55049687046164</v>
       </c>
       <c r="U26" t="n">
         <v>109.3239453642179</v>
@@ -2640,16 +2640,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92170139806791</v>
       </c>
       <c r="F27" t="n">
-        <v>1.394499774443375</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7417359124531</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7440664331786</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>77.21888289313682</v>
       </c>
       <c r="S27" t="n">
-        <v>21.62162006533002</v>
+        <v>163.7333523744359</v>
       </c>
       <c r="T27" t="n">
         <v>197.2479929833146</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6386590216361</v>
+        <v>92.39899860089133</v>
       </c>
       <c r="V27" t="n">
-        <v>89.79699873054921</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>158.4873486018355</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -2871,25 +2871,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>28.91385161829507</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92170139806791</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>1.394499774443375</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7417359124531</v>
+        <v>9.872071888361374</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.8124329530782</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>77.21888289313682</v>
       </c>
       <c r="S30" t="n">
-        <v>21.62162006533002</v>
+        <v>163.7333523744359</v>
       </c>
       <c r="T30" t="n">
         <v>197.2479929833146</v>
       </c>
       <c r="U30" t="n">
-        <v>164.0682943535724</v>
+        <v>224.6386590216361</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>107.8776144408941</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.26039330123896</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>28.91385161829513</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>4.0006912655397</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>1.394499774443432</v>
       </c>
       <c r="G33" t="n">
         <v>135.7417359124531</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I33" t="n">
-        <v>76.8124329530782</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>16.64851822507241</v>
+        <v>77.21888289313682</v>
       </c>
       <c r="S33" t="n">
-        <v>21.62162006533008</v>
+        <v>163.7333523744359</v>
       </c>
       <c r="T33" t="n">
         <v>197.2479929833146</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6386590216361</v>
+        <v>82.52692671253027</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3174,7 +3174,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>112.1691532704214</v>
       </c>
     </row>
     <row r="34">
@@ -3345,7 +3345,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7417359124531</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7440664331786</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7333523744359</v>
       </c>
       <c r="T36" t="n">
         <v>197.2479929833146</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6386590216361</v>
+        <v>112.4862528900183</v>
       </c>
       <c r="V36" t="n">
-        <v>11.24650186008756</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>107.7211358993536</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3484,13 +3484,13 @@
         <v>32.27412188737159</v>
       </c>
       <c r="W37" t="n">
-        <v>65.43034770784797</v>
+        <v>248.2080711145358</v>
       </c>
       <c r="X37" t="n">
         <v>5.478130752741691</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.7777234066878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3582,10 +3582,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7417359124531</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7440664331786</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>77.21888289313682</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7333523744359</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2479929833146</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>224.6386590216361</v>
       </c>
       <c r="V39" t="n">
-        <v>178.9833450859156</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>156.9263962487242</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3718,13 +3718,13 @@
         <v>65.37716965195636</v>
       </c>
       <c r="V40" t="n">
-        <v>32.27412188737162</v>
+        <v>215.0518452940593</v>
       </c>
       <c r="W40" t="n">
         <v>65.430347707848</v>
       </c>
       <c r="X40" t="n">
-        <v>188.2558541594294</v>
+        <v>5.47813075274172</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>173.1080504508993</v>
       </c>
       <c r="D41" t="n">
-        <v>162.727687526555</v>
+        <v>162.7276875265551</v>
       </c>
       <c r="E41" t="n">
         <v>189.2409905272441</v>
       </c>
       <c r="F41" t="n">
-        <v>209.5770298038023</v>
+        <v>213.4168182524975</v>
       </c>
       <c r="G41" t="n">
-        <v>220.4516463855299</v>
+        <v>220.45164638553</v>
       </c>
       <c r="H41" t="n">
-        <v>138.879204955634</v>
+        <v>135.0394165069384</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78518395152419</v>
+        <v>26.78518395152422</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55863244528045</v>
+        <v>57.55863244528048</v>
       </c>
       <c r="V41" t="n">
         <v>134.656176294476</v>
       </c>
       <c r="W41" t="n">
-        <v>156.6530717725112</v>
+        <v>156.6530717725113</v>
       </c>
       <c r="X41" t="n">
-        <v>176.984553903126</v>
+        <v>176.9845539031261</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.8100265231924</v>
+        <v>192.8100265231925</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.81243295307817</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.21888289313685</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7333523744359</v>
+        <v>163.733352374436</v>
       </c>
       <c r="T42" t="n">
         <v>197.2479929833146</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6386590216361</v>
+        <v>30.7616137935928</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,7 +3882,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>70.24573778670651</v>
+        <v>92.69074914729201</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36789846024692</v>
+        <v>24.36789846024696</v>
       </c>
       <c r="T43" t="n">
-        <v>33.44714859947257</v>
+        <v>33.4471485994726</v>
       </c>
       <c r="U43" t="n">
-        <v>92.16235360348054</v>
+        <v>92.16235360348057</v>
       </c>
       <c r="V43" t="n">
-        <v>59.0593058388958</v>
+        <v>59.05930583889582</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21553165937217</v>
+        <v>92.2155316593722</v>
       </c>
       <c r="X43" t="n">
-        <v>32.26331470426589</v>
+        <v>32.26331470426592</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.87162863972486</v>
+        <v>24.87162863972489</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>213.4168182524975</v>
       </c>
       <c r="G44" t="n">
-        <v>216.6118579368346</v>
+        <v>216.6118579368365</v>
       </c>
       <c r="H44" t="n">
         <v>138.879204955634</v>
@@ -4031,7 +4031,7 @@
         <v>26.78518395152419</v>
       </c>
       <c r="U44" t="n">
-        <v>57.55863244528045</v>
+        <v>57.55863244528044</v>
       </c>
       <c r="V44" t="n">
         <v>134.656176294476</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7417359124531</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.230432004664518</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.21888289313681</v>
+        <v>77.21888289313682</v>
       </c>
       <c r="S45" t="n">
         <v>163.7333523744359</v>
@@ -4122,7 +4122,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>51.90014547509647</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>771.3072523038818</v>
+        <v>695.9012505918244</v>
       </c>
       <c r="C11" t="n">
-        <v>771.3072523038818</v>
+        <v>695.9012505918244</v>
       </c>
       <c r="D11" t="n">
-        <v>534.5305174941335</v>
+        <v>459.1245157820761</v>
       </c>
       <c r="E11" t="n">
-        <v>270.9726685422752</v>
+        <v>385.4495365025571</v>
       </c>
       <c r="F11" t="n">
-        <v>270.9726685422752</v>
+        <v>97.47165954539213</v>
       </c>
       <c r="G11" t="n">
-        <v>270.9726685422752</v>
+        <v>97.47165954539213</v>
       </c>
       <c r="H11" t="n">
-        <v>97.47165954539219</v>
+        <v>97.47165954539213</v>
       </c>
       <c r="I11" t="n">
-        <v>34.09076785219122</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="J11" t="n">
-        <v>77.64144029129459</v>
+        <v>77.64144029129466</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1892016619082</v>
+        <v>265.1892016619083</v>
       </c>
       <c r="L11" t="n">
-        <v>549.8278618727927</v>
+        <v>549.8278618727929</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7555092137283</v>
+        <v>881.7555092137286</v>
       </c>
       <c r="N11" t="n">
         <v>1203.536917916042</v>
       </c>
       <c r="O11" t="n">
-        <v>1461.257626144369</v>
+        <v>1461.25762614437</v>
       </c>
       <c r="P11" t="n">
         <v>1644.277494869928</v>
@@ -5066,25 +5066,25 @@
         <v>1704.538392609561</v>
       </c>
       <c r="S11" t="n">
-        <v>1704.538392609561</v>
+        <v>1632.133059341787</v>
       </c>
       <c r="T11" t="n">
-        <v>1605.077317976612</v>
+        <v>1532.671984708838</v>
       </c>
       <c r="U11" t="n">
-        <v>1474.531951935828</v>
+        <v>1402.126618668054</v>
       </c>
       <c r="V11" t="n">
-        <v>1266.110278976664</v>
+        <v>1193.70494570889</v>
       </c>
       <c r="W11" t="n">
-        <v>1035.469519676051</v>
+        <v>963.0641864082771</v>
       </c>
       <c r="X11" t="n">
-        <v>1035.469519676051</v>
+        <v>963.0641864082771</v>
       </c>
       <c r="Y11" t="n">
-        <v>1035.469519676051</v>
+        <v>695.9012505918244</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>664.0897437795478</v>
+        <v>300.3901093001028</v>
       </c>
       <c r="C12" t="n">
-        <v>491.336628701365</v>
+        <v>251.0670601743923</v>
       </c>
       <c r="D12" t="n">
-        <v>343.7483220603089</v>
+        <v>226.9088194858084</v>
       </c>
       <c r="E12" t="n">
-        <v>309.5688590156359</v>
+        <v>192.7293564411355</v>
       </c>
       <c r="F12" t="n">
-        <v>164.6130690322528</v>
+        <v>171.2036324102246</v>
       </c>
       <c r="G12" t="n">
-        <v>150.9302704266917</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6790839664116</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="I12" t="n">
-        <v>34.09076785219122</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="J12" t="n">
-        <v>67.81129518682806</v>
+        <v>67.81129518682809</v>
       </c>
       <c r="K12" t="n">
-        <v>252.0506605605767</v>
+        <v>252.0506605605768</v>
       </c>
       <c r="L12" t="n">
-        <v>560.6328308186573</v>
+        <v>560.6328308186576</v>
       </c>
       <c r="M12" t="n">
-        <v>973.5338627038889</v>
+        <v>973.5338627038893</v>
       </c>
       <c r="N12" t="n">
-        <v>1001.827541056229</v>
+        <v>1395.407114874756</v>
       </c>
       <c r="O12" t="n">
-        <v>1336.007355606308</v>
+        <v>1395.407114874756</v>
       </c>
       <c r="P12" t="n">
         <v>1587.789577516935</v>
@@ -5142,28 +5142,28 @@
         <v>1704.538392609561</v>
       </c>
       <c r="R12" t="n">
-        <v>1704.538392609561</v>
+        <v>1626.539521000332</v>
       </c>
       <c r="S12" t="n">
-        <v>1539.151167988919</v>
+        <v>1545.74173136689</v>
       </c>
       <c r="T12" t="n">
-        <v>1339.910771036076</v>
+        <v>1346.501334414048</v>
       </c>
       <c r="U12" t="n">
-        <v>1236.433100603057</v>
+        <v>1119.593598028556</v>
       </c>
       <c r="V12" t="n">
-        <v>1125.61192308113</v>
+        <v>1008.77242050663</v>
       </c>
       <c r="W12" t="n">
-        <v>996.5274973669357</v>
+        <v>756.257928839963</v>
       </c>
       <c r="X12" t="n">
-        <v>913.4306647249855</v>
+        <v>549.7310302455405</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.7022289486359</v>
+        <v>344.002594469191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.3504174393763</v>
+        <v>264.3504174393764</v>
       </c>
       <c r="C13" t="n">
-        <v>218.75366224922</v>
+        <v>218.7536622492202</v>
       </c>
       <c r="D13" t="n">
-        <v>191.673054954703</v>
+        <v>191.6730549547032</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6439045706105</v>
+        <v>166.6439045706107</v>
       </c>
       <c r="F13" t="n">
-        <v>142.438595361664</v>
+        <v>142.4385953616641</v>
       </c>
       <c r="G13" t="n">
-        <v>96.5215801641004</v>
+        <v>96.52158016410044</v>
       </c>
       <c r="H13" t="n">
-        <v>58.80416348642656</v>
+        <v>58.80416348642652</v>
       </c>
       <c r="I13" t="n">
-        <v>34.09076785219122</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="J13" t="n">
-        <v>83.63096857364448</v>
+        <v>83.63096857364445</v>
       </c>
       <c r="K13" t="n">
-        <v>217.1203681956804</v>
+        <v>217.1203681956803</v>
       </c>
       <c r="L13" t="n">
         <v>409.9134397416126</v>
@@ -5209,7 +5209,7 @@
         <v>617.2034909889369</v>
       </c>
       <c r="N13" t="n">
-        <v>827.5823967844105</v>
+        <v>827.5823967844107</v>
       </c>
       <c r="O13" t="n">
         <v>1015.799686650028</v>
@@ -5221,28 +5221,28 @@
         <v>1232.662532635972</v>
       </c>
       <c r="R13" t="n">
-        <v>1191.667657084694</v>
+        <v>1191.667657084695</v>
       </c>
       <c r="S13" t="n">
         <v>1094.648284968187</v>
       </c>
       <c r="T13" t="n">
-        <v>988.4579531150873</v>
+        <v>988.4579531150881</v>
       </c>
       <c r="U13" t="n">
-        <v>822.9593333791521</v>
+        <v>822.9593333791524</v>
       </c>
       <c r="V13" t="n">
-        <v>690.8981356276454</v>
+        <v>690.8981356276458</v>
       </c>
       <c r="W13" t="n">
-        <v>525.3458006837385</v>
+        <v>525.3458006837387</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3512606439793</v>
+        <v>420.3512606439794</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8230701643624</v>
+        <v>322.8230701643625</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>892.8900072672269</v>
+        <v>547.1853837314598</v>
       </c>
       <c r="C14" t="n">
-        <v>892.8900072672269</v>
+        <v>299.9234338466163</v>
       </c>
       <c r="D14" t="n">
-        <v>656.1132724574786</v>
+        <v>63.14669903686857</v>
       </c>
       <c r="E14" t="n">
-        <v>392.5554235056202</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="F14" t="n">
-        <v>392.5554235056202</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="G14" t="n">
-        <v>97.47165954539213</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="H14" t="n">
-        <v>97.47165954539213</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="I14" t="n">
-        <v>34.09076785219122</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="J14" t="n">
         <v>77.64144029129466</v>
       </c>
       <c r="K14" t="n">
-        <v>265.1892016619084</v>
+        <v>265.1892016619083</v>
       </c>
       <c r="L14" t="n">
-        <v>549.8278618727932</v>
+        <v>549.8278618727929</v>
       </c>
       <c r="M14" t="n">
-        <v>881.7555092137288</v>
+        <v>881.7555092137286</v>
       </c>
       <c r="N14" t="n">
-        <v>1203.536917916043</v>
+        <v>1203.536917916042</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.257626144371</v>
+        <v>1461.25762614437</v>
       </c>
       <c r="P14" t="n">
         <v>1644.277494869928</v>
@@ -5306,22 +5306,22 @@
         <v>1632.133059341787</v>
       </c>
       <c r="T14" t="n">
-        <v>1532.671984708838</v>
+        <v>1632.133059341787</v>
       </c>
       <c r="U14" t="n">
-        <v>1402.126618668054</v>
+        <v>1501.587693301003</v>
       </c>
       <c r="V14" t="n">
-        <v>1193.70494570889</v>
+        <v>1293.16602034184</v>
       </c>
       <c r="W14" t="n">
-        <v>1193.70494570889</v>
+        <v>1062.525261041227</v>
       </c>
       <c r="X14" t="n">
-        <v>942.5273357712927</v>
+        <v>811.347651103629</v>
       </c>
       <c r="Y14" t="n">
-        <v>942.5273357712927</v>
+        <v>811.347651103629</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>462.6608062178462</v>
+        <v>215.8006743129015</v>
       </c>
       <c r="C15" t="n">
-        <v>413.3377570921357</v>
+        <v>166.477625187191</v>
       </c>
       <c r="D15" t="n">
-        <v>289.8994599841005</v>
+        <v>142.3193844986071</v>
       </c>
       <c r="E15" t="n">
-        <v>255.7199969394276</v>
+        <v>108.1399214539341</v>
       </c>
       <c r="F15" t="n">
-        <v>234.1942729085168</v>
+        <v>47.77356645775231</v>
       </c>
       <c r="G15" t="n">
-        <v>220.5114743029557</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6790839664116</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="I15" t="n">
-        <v>34.09076785219122</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="J15" t="n">
-        <v>34.09076785219122</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="K15" t="n">
-        <v>218.3301332259399</v>
+        <v>192.6509012921287</v>
       </c>
       <c r="L15" t="n">
-        <v>526.9123034840208</v>
+        <v>501.2330715502095</v>
       </c>
       <c r="M15" t="n">
-        <v>939.8133353692525</v>
+        <v>914.1341034354413</v>
       </c>
       <c r="N15" t="n">
         <v>1336.007355606308</v>
@@ -5385,22 +5385,22 @@
         <v>1461.152296379689</v>
       </c>
       <c r="T15" t="n">
-        <v>1385.341965379319</v>
+        <v>1261.911899426846</v>
       </c>
       <c r="U15" t="n">
-        <v>1281.8642949463</v>
+        <v>1035.004163041355</v>
       </c>
       <c r="V15" t="n">
-        <v>1171.043117424373</v>
+        <v>800.7529195669561</v>
       </c>
       <c r="W15" t="n">
-        <v>918.5286257577064</v>
+        <v>548.2384279002894</v>
       </c>
       <c r="X15" t="n">
-        <v>712.0017271632839</v>
+        <v>341.7115293058669</v>
       </c>
       <c r="Y15" t="n">
-        <v>506.2732913869344</v>
+        <v>259.4131594819896</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3504174393761</v>
+        <v>264.3504174393762</v>
       </c>
       <c r="C16" t="n">
-        <v>218.7536622492198</v>
+        <v>218.7536622492199</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6730549547028</v>
+        <v>191.6730549547029</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6439045706103</v>
+        <v>166.6439045706104</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4385953616639</v>
+        <v>142.438595361664</v>
       </c>
       <c r="G16" t="n">
-        <v>96.52158016410033</v>
+        <v>96.52158016410044</v>
       </c>
       <c r="H16" t="n">
-        <v>58.8041634864265</v>
+        <v>58.80416348642662</v>
       </c>
       <c r="I16" t="n">
-        <v>34.09076785219122</v>
+        <v>34.09076785219121</v>
       </c>
       <c r="J16" t="n">
-        <v>83.63096857364454</v>
+        <v>83.6309685736444</v>
       </c>
       <c r="K16" t="n">
-        <v>217.1203681956805</v>
+        <v>217.1203681956803</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9134397416127</v>
+        <v>409.9134397416126</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2034909889371</v>
+        <v>617.203490988937</v>
       </c>
       <c r="N16" t="n">
-        <v>827.582396784411</v>
+        <v>827.5823967844108</v>
       </c>
       <c r="O16" t="n">
         <v>1015.799686650028</v>
@@ -5467,19 +5467,19 @@
         <v>988.4579531150874</v>
       </c>
       <c r="U16" t="n">
-        <v>822.9593333791518</v>
+        <v>822.959333379152</v>
       </c>
       <c r="V16" t="n">
-        <v>690.8981356276452</v>
+        <v>690.8981356276454</v>
       </c>
       <c r="W16" t="n">
-        <v>525.3458006837382</v>
+        <v>525.3458006837384</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3512606439789</v>
+        <v>420.3512606439791</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8230701643622</v>
+        <v>322.8230701643623</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>964.9320410371499</v>
       </c>
       <c r="C17" t="n">
-        <v>819.7541344613679</v>
+        <v>819.7541344613682</v>
       </c>
       <c r="D17" t="n">
-        <v>685.0614429606811</v>
+        <v>685.0614429606813</v>
       </c>
       <c r="E17" t="n">
         <v>523.5876373178842</v>
       </c>
       <c r="F17" t="n">
-        <v>337.6938036697806</v>
+        <v>337.6938036697808</v>
       </c>
       <c r="G17" t="n">
         <v>144.6940830186144</v>
@@ -5510,10 +5510,10 @@
         <v>34.09076785219122</v>
       </c>
       <c r="I17" t="n">
-        <v>34.09076785219121</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64144029129466</v>
+        <v>77.64144029129467</v>
       </c>
       <c r="K17" t="n">
         <v>265.1892016619083</v>
@@ -5546,10 +5546,10 @@
         <v>1704.538392609561</v>
       </c>
       <c r="U17" t="n">
-        <v>1676.077069877839</v>
+        <v>1676.077069877838</v>
       </c>
       <c r="V17" t="n">
-        <v>1569.739440227737</v>
+        <v>1569.739440227736</v>
       </c>
       <c r="W17" t="n">
         <v>1441.182724236185</v>
@@ -5558,7 +5558,7 @@
         <v>1292.089157607649</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.010265100258</v>
+        <v>1127.010265100257</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>364.4534119275194</v>
+        <v>326.6348644766305</v>
       </c>
       <c r="C18" t="n">
-        <v>191.7002968493365</v>
+        <v>326.6348644766305</v>
       </c>
       <c r="D18" t="n">
-        <v>191.7002968493365</v>
+        <v>179.0465578355744</v>
       </c>
       <c r="E18" t="n">
-        <v>34.09076785219122</v>
+        <v>179.0465578355744</v>
       </c>
       <c r="F18" t="n">
         <v>34.09076785219122</v>
@@ -5592,13 +5592,13 @@
         <v>34.09076785219122</v>
       </c>
       <c r="J18" t="n">
-        <v>67.81129518682809</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="K18" t="n">
-        <v>252.0506605605768</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="L18" t="n">
-        <v>560.6328308186576</v>
+        <v>342.672938110272</v>
       </c>
       <c r="M18" t="n">
         <v>579.9542888853628</v>
@@ -5616,28 +5616,28 @@
         <v>1704.538392609561</v>
       </c>
       <c r="R18" t="n">
-        <v>1704.538392609561</v>
+        <v>1626.539521000332</v>
       </c>
       <c r="S18" t="n">
-        <v>1539.151167988919</v>
+        <v>1461.152296379689</v>
       </c>
       <c r="T18" t="n">
-        <v>1339.910771036076</v>
+        <v>1261.911899426847</v>
       </c>
       <c r="U18" t="n">
-        <v>1338.517143912118</v>
+        <v>1186.171586515606</v>
       </c>
       <c r="V18" t="n">
-        <v>1104.265900437719</v>
+        <v>951.9203430412072</v>
       </c>
       <c r="W18" t="n">
-        <v>851.7514087710525</v>
+        <v>699.4058513745405</v>
       </c>
       <c r="X18" t="n">
-        <v>737.2243988254294</v>
+        <v>699.4058513745405</v>
       </c>
       <c r="Y18" t="n">
-        <v>531.4959630490798</v>
+        <v>493.6774155981909</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.8295742698099</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="C19" t="n">
-        <v>231.8295742698099</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="D19" t="n">
-        <v>231.8295742698099</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="E19" t="n">
-        <v>181.7261430136099</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="F19" t="n">
         <v>34.09076785219122</v>
@@ -5698,25 +5698,25 @@
         <v>395.7063820487103</v>
       </c>
       <c r="S19" t="n">
-        <v>395.7063820487103</v>
+        <v>197.9675756310916</v>
       </c>
       <c r="T19" t="n">
-        <v>391.6000935046724</v>
+        <v>193.8612870870538</v>
       </c>
       <c r="U19" t="n">
-        <v>328.1855170777983</v>
+        <v>130.4467106601796</v>
       </c>
       <c r="V19" t="n">
-        <v>298.2083626353532</v>
+        <v>100.4695562177345</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7400710005077</v>
+        <v>37.00126458288898</v>
       </c>
       <c r="X19" t="n">
-        <v>231.8295742698099</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8295742698099</v>
+        <v>34.09076785219122</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>964.9320410371499</v>
       </c>
       <c r="C20" t="n">
-        <v>819.754134461368</v>
+        <v>819.7541344613679</v>
       </c>
       <c r="D20" t="n">
-        <v>685.0614429606812</v>
+        <v>685.0614429606811</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5876373178843</v>
+        <v>523.5876373178842</v>
       </c>
       <c r="F20" t="n">
         <v>337.6938036697808</v>
       </c>
       <c r="G20" t="n">
-        <v>144.6940830186145</v>
+        <v>144.6940830186144</v>
       </c>
       <c r="H20" t="n">
         <v>34.09076785219122</v>
@@ -5750,22 +5750,22 @@
         <v>34.09076785219122</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64144029129466</v>
+        <v>77.64144029129467</v>
       </c>
       <c r="K20" t="n">
         <v>265.1892016619083</v>
       </c>
       <c r="L20" t="n">
-        <v>549.8278618727932</v>
+        <v>549.8278618727929</v>
       </c>
       <c r="M20" t="n">
-        <v>881.7555092137288</v>
+        <v>881.7555092137286</v>
       </c>
       <c r="N20" t="n">
-        <v>1203.536917916043</v>
+        <v>1203.536917916042</v>
       </c>
       <c r="O20" t="n">
-        <v>1461.257626144371</v>
+        <v>1461.25762614437</v>
       </c>
       <c r="P20" t="n">
         <v>1644.277494869928</v>
@@ -5783,10 +5783,10 @@
         <v>1704.538392609561</v>
       </c>
       <c r="U20" t="n">
-        <v>1676.077069877838</v>
+        <v>1676.077069877839</v>
       </c>
       <c r="V20" t="n">
-        <v>1569.739440227736</v>
+        <v>1569.739440227737</v>
       </c>
       <c r="W20" t="n">
         <v>1441.182724236185</v>
@@ -5795,7 +5795,7 @@
         <v>1292.089157607649</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.010265100257</v>
+        <v>1127.010265100258</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>624.5819730086007</v>
+        <v>206.843882930374</v>
       </c>
       <c r="C21" t="n">
-        <v>451.8288579304179</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="D21" t="n">
-        <v>304.2405512893617</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="E21" t="n">
-        <v>146.6310222922164</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="F21" t="n">
-        <v>142.9231581887353</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="G21" t="n">
-        <v>142.9231581887353</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="H21" t="n">
         <v>34.09076785219122</v>
@@ -5829,19 +5829,19 @@
         <v>34.09076785219122</v>
       </c>
       <c r="J21" t="n">
-        <v>67.81129518682809</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="K21" t="n">
-        <v>67.81129518682809</v>
+        <v>192.6509012921288</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3934654449089</v>
+        <v>501.2330715502096</v>
       </c>
       <c r="M21" t="n">
-        <v>789.2944973301406</v>
+        <v>914.1341034354414</v>
       </c>
       <c r="N21" t="n">
-        <v>1001.827541056229</v>
+        <v>1336.007355606308</v>
       </c>
       <c r="O21" t="n">
         <v>1336.007355606308</v>
@@ -5853,28 +5853,28 @@
         <v>1704.538392609561</v>
       </c>
       <c r="R21" t="n">
-        <v>1704.538392609561</v>
+        <v>1626.539521000332</v>
       </c>
       <c r="S21" t="n">
-        <v>1704.538392609561</v>
+        <v>1461.152296379689</v>
       </c>
       <c r="T21" t="n">
-        <v>1505.297995656718</v>
+        <v>1332.772688827703</v>
       </c>
       <c r="U21" t="n">
-        <v>1278.390259271227</v>
+        <v>1105.864952442212</v>
       </c>
       <c r="V21" t="n">
-        <v>1044.139015796828</v>
+        <v>871.6137089678127</v>
       </c>
       <c r="W21" t="n">
-        <v>791.6245241301611</v>
+        <v>619.099217301146</v>
       </c>
       <c r="X21" t="n">
-        <v>791.6245241301611</v>
+        <v>412.5723187067235</v>
       </c>
       <c r="Y21" t="n">
-        <v>791.6245241301611</v>
+        <v>206.843882930374</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.9268555923515</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="C22" t="n">
-        <v>49.9268555923515</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="D22" t="n">
         <v>34.09076785219122</v>
@@ -5929,31 +5929,31 @@
         <v>395.7063820487103</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.7063820487103</v>
+        <v>335.0996035421107</v>
       </c>
       <c r="R22" t="n">
-        <v>395.7063820487103</v>
+        <v>197.9675756310916</v>
       </c>
       <c r="S22" t="n">
-        <v>395.7063820487103</v>
+        <v>197.9675756310916</v>
       </c>
       <c r="T22" t="n">
-        <v>391.6000935046724</v>
+        <v>193.8612870870538</v>
       </c>
       <c r="U22" t="n">
-        <v>328.1855170777983</v>
+        <v>130.4467106601796</v>
       </c>
       <c r="V22" t="n">
-        <v>298.2083626353532</v>
+        <v>100.4695562177345</v>
       </c>
       <c r="W22" t="n">
-        <v>234.7400710005077</v>
+        <v>37.00126458288898</v>
       </c>
       <c r="X22" t="n">
-        <v>231.8295742698099</v>
+        <v>34.09076785219122</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.8295742698099</v>
+        <v>34.09076785219122</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.9320410371499</v>
+        <v>964.9320410371498</v>
       </c>
       <c r="C23" t="n">
-        <v>819.7541344613679</v>
+        <v>819.7541344613678</v>
       </c>
       <c r="D23" t="n">
-        <v>685.0614429606811</v>
+        <v>685.061442960681</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5876373178842</v>
+        <v>523.5876373178841</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6938036697808</v>
+        <v>337.6938036697807</v>
       </c>
       <c r="G23" t="n">
         <v>144.6940830186144</v>
@@ -6020,10 +6020,10 @@
         <v>1704.538392609561</v>
       </c>
       <c r="U23" t="n">
-        <v>1676.077069877839</v>
+        <v>1676.077069877838</v>
       </c>
       <c r="V23" t="n">
-        <v>1569.739440227737</v>
+        <v>1569.739440227736</v>
       </c>
       <c r="W23" t="n">
         <v>1441.182724236185</v>
@@ -6032,7 +6032,7 @@
         <v>1292.089157607649</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.010265100258</v>
+        <v>1127.010265100257</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.0417185685756</v>
+        <v>568.0241013854738</v>
       </c>
       <c r="C24" t="n">
-        <v>339.2886034903927</v>
+        <v>395.270986307291</v>
       </c>
       <c r="D24" t="n">
-        <v>191.7002968493365</v>
+        <v>300.5326871858806</v>
       </c>
       <c r="E24" t="n">
-        <v>34.09076785219122</v>
+        <v>142.9231581887353</v>
       </c>
       <c r="F24" t="n">
-        <v>34.09076785219122</v>
+        <v>142.9231581887353</v>
       </c>
       <c r="G24" t="n">
-        <v>34.09076785219122</v>
+        <v>142.9231581887353</v>
       </c>
       <c r="H24" t="n">
         <v>34.09076785219122</v>
@@ -6066,22 +6066,22 @@
         <v>34.09076785219122</v>
       </c>
       <c r="J24" t="n">
-        <v>34.09076785219122</v>
+        <v>67.81129518682809</v>
       </c>
       <c r="K24" t="n">
-        <v>218.3301332259399</v>
+        <v>252.0506605605768</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9123034840206</v>
+        <v>560.6328308186576</v>
       </c>
       <c r="M24" t="n">
-        <v>939.8133353692524</v>
+        <v>948.4853258886158</v>
       </c>
       <c r="N24" t="n">
-        <v>1118.576356148855</v>
+        <v>1370.358578059482</v>
       </c>
       <c r="O24" t="n">
-        <v>1452.756170698933</v>
+        <v>1704.538392609561</v>
       </c>
       <c r="P24" t="n">
         <v>1704.538392609561</v>
@@ -6090,28 +6090,28 @@
         <v>1704.538392609561</v>
       </c>
       <c r="R24" t="n">
-        <v>1704.538392609561</v>
+        <v>1626.539521000332</v>
       </c>
       <c r="S24" t="n">
-        <v>1539.151167988919</v>
+        <v>1461.152296379689</v>
       </c>
       <c r="T24" t="n">
-        <v>1339.910771036076</v>
+        <v>1261.911899426847</v>
       </c>
       <c r="U24" t="n">
-        <v>1113.003034650585</v>
+        <v>1035.004163041355</v>
       </c>
       <c r="V24" t="n">
-        <v>878.7517911761854</v>
+        <v>1026.26702882849</v>
       </c>
       <c r="W24" t="n">
-        <v>626.2372995095187</v>
+        <v>773.7525371618234</v>
       </c>
       <c r="X24" t="n">
-        <v>512.0417185685756</v>
+        <v>773.7525371618234</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.0417185685756</v>
+        <v>568.0241013854738</v>
       </c>
     </row>
     <row r="25">
@@ -6169,22 +6169,22 @@
         <v>395.7063820487103</v>
       </c>
       <c r="R25" t="n">
-        <v>395.7063820487103</v>
+        <v>231.281440544961</v>
       </c>
       <c r="S25" t="n">
-        <v>395.7063820487103</v>
+        <v>231.281440544961</v>
       </c>
       <c r="T25" t="n">
-        <v>391.6000935046724</v>
+        <v>227.1751520009231</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4467106601796</v>
+        <v>163.760575574049</v>
       </c>
       <c r="V25" t="n">
-        <v>100.4695562177345</v>
+        <v>133.7834211316038</v>
       </c>
       <c r="W25" t="n">
-        <v>37.00126458288898</v>
+        <v>70.31512949675832</v>
       </c>
       <c r="X25" t="n">
         <v>34.09076785219122</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.640055279524</v>
+        <v>1523.640055279525</v>
       </c>
       <c r="C26" t="n">
         <v>1296.495243794841</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.835647385252</v>
+        <v>1079.835647385253</v>
       </c>
       <c r="E26" t="n">
-        <v>836.3949368335537</v>
+        <v>836.3949368335542</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5341982765488</v>
+        <v>568.5341982765492</v>
       </c>
       <c r="G26" t="n">
-        <v>293.5675727164806</v>
+        <v>293.567572716481</v>
       </c>
       <c r="H26" t="n">
-        <v>100.997352641156</v>
+        <v>100.9973526411563</v>
       </c>
       <c r="I26" t="n">
         <v>57.73359934811498</v>
@@ -6227,10 +6227,10 @@
         <v>241.9748867732333</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2132631298618</v>
+        <v>570.2132631298621</v>
       </c>
       <c r="L26" t="n">
-        <v>995.5425383267614</v>
+        <v>995.5425383267616</v>
       </c>
       <c r="M26" t="n">
         <v>1468.160800653712</v>
@@ -6254,19 +6254,19 @@
         <v>2834.391772538135</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.047836305346</v>
+        <v>2755.047836305345</v>
       </c>
       <c r="U26" t="n">
         <v>2644.619608664721</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.315074105717</v>
+        <v>2456.315074105718</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.791453205264</v>
+        <v>2245.791453205265</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.730981667826</v>
+        <v>2014.730981667827</v>
       </c>
       <c r="Y26" t="n">
         <v>1767.685184251534</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>783.0383905898277</v>
+        <v>537.0931356952501</v>
       </c>
       <c r="C27" t="n">
-        <v>610.2852755116448</v>
+        <v>364.3400206170673</v>
       </c>
       <c r="D27" t="n">
-        <v>462.6969688705886</v>
+        <v>216.7517139760112</v>
       </c>
       <c r="E27" t="n">
-        <v>305.0874398734433</v>
+        <v>202.6893893314981</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6788542426924</v>
+        <v>57.73359934811498</v>
       </c>
       <c r="G27" t="n">
-        <v>166.565989684659</v>
+        <v>57.73359934811498</v>
       </c>
       <c r="H27" t="n">
         <v>57.73359934811498</v>
@@ -6330,25 +6330,25 @@
         <v>2061.116699721216</v>
       </c>
       <c r="S27" t="n">
-        <v>2039.276679453206</v>
+        <v>1895.729475100574</v>
       </c>
       <c r="T27" t="n">
-        <v>1840.036282500363</v>
+        <v>1696.489078147731</v>
       </c>
       <c r="U27" t="n">
-        <v>1613.128546114872</v>
+        <v>1603.156756328649</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.424506993105</v>
+        <v>1368.90551285425</v>
       </c>
       <c r="W27" t="n">
-        <v>1362.33627608216</v>
+        <v>1116.391021187583</v>
       </c>
       <c r="X27" t="n">
-        <v>1155.809377487738</v>
+        <v>909.8641225931601</v>
       </c>
       <c r="Y27" t="n">
-        <v>950.0809417113882</v>
+        <v>704.1356868168106</v>
       </c>
     </row>
     <row r="28">
@@ -6388,16 +6388,16 @@
         <v>210.9398063161477</v>
       </c>
       <c r="L28" t="n">
-        <v>375.7691614487199</v>
+        <v>423.4496852080767</v>
       </c>
       <c r="M28" t="n">
-        <v>462.0854050560262</v>
+        <v>509.7659288153829</v>
       </c>
       <c r="N28" t="n">
-        <v>692.1811181974967</v>
+        <v>739.8616419568535</v>
       </c>
       <c r="O28" t="n">
-        <v>900.1152154091108</v>
+        <v>807.1051241824528</v>
       </c>
       <c r="P28" t="n">
         <v>934.4311497293367</v>
@@ -6440,19 +6440,19 @@
         <v>1523.640055279525</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.495243794841</v>
+        <v>1296.495243794842</v>
       </c>
       <c r="D29" t="n">
         <v>1079.835647385253</v>
       </c>
       <c r="E29" t="n">
-        <v>836.3949368335543</v>
+        <v>836.3949368335548</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5341982765493</v>
+        <v>568.5341982765498</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5675727164812</v>
+        <v>293.5675727164817</v>
       </c>
       <c r="H29" t="n">
         <v>100.997352641156</v>
@@ -6467,7 +6467,7 @@
         <v>570.2132631298618</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5425383267614</v>
+        <v>995.5425383267616</v>
       </c>
       <c r="M29" t="n">
         <v>1468.160800653712</v>
@@ -6476,7 +6476,7 @@
         <v>1930.632824342041</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.044147556384</v>
+        <v>2329.044147556383</v>
       </c>
       <c r="P29" t="n">
         <v>2652.754631267956</v>
@@ -6488,13 +6488,13 @@
         <v>2886.679967405749</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.391772538135</v>
+        <v>2834.391772538136</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.047836305345</v>
+        <v>2755.047836305346</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.619608664721</v>
+        <v>2644.619608664722</v>
       </c>
       <c r="V29" t="n">
         <v>2456.315074105718</v>
@@ -6503,7 +6503,7 @@
         <v>2245.791453205265</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.730981667827</v>
+        <v>2014.730981667828</v>
       </c>
       <c r="Y29" t="n">
         <v>1767.685184251534</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>751.7943163675039</v>
+        <v>403.5177211288415</v>
       </c>
       <c r="C30" t="n">
-        <v>722.5884056419534</v>
+        <v>230.7646060506586</v>
       </c>
       <c r="D30" t="n">
-        <v>575.0000990008972</v>
+        <v>83.17629940960251</v>
       </c>
       <c r="E30" t="n">
-        <v>417.3905700037519</v>
+        <v>69.11397476508947</v>
       </c>
       <c r="F30" t="n">
-        <v>272.4347800203687</v>
+        <v>67.70538913433859</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3219154623354</v>
+        <v>57.73359934811498</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3219154623354</v>
+        <v>57.73359934811498</v>
       </c>
       <c r="I30" t="n">
         <v>57.73359934811498</v>
@@ -6567,25 +6567,25 @@
         <v>2061.116699721216</v>
       </c>
       <c r="S30" t="n">
-        <v>2039.276679453206</v>
+        <v>1895.729475100574</v>
       </c>
       <c r="T30" t="n">
-        <v>1840.036282500363</v>
+        <v>1696.489078147731</v>
       </c>
       <c r="U30" t="n">
-        <v>1674.31073264827</v>
+        <v>1469.58134176224</v>
       </c>
       <c r="V30" t="n">
-        <v>1440.059489173871</v>
+        <v>1235.330098287841</v>
       </c>
       <c r="W30" t="n">
-        <v>1331.092201859836</v>
+        <v>982.815606621174</v>
       </c>
       <c r="X30" t="n">
-        <v>1124.565303265414</v>
+        <v>776.2887080267515</v>
       </c>
       <c r="Y30" t="n">
-        <v>918.8368674890644</v>
+        <v>570.5602722504019</v>
       </c>
     </row>
     <row r="31">
@@ -6622,22 +6622,22 @@
         <v>126.990607415565</v>
       </c>
       <c r="K31" t="n">
-        <v>280.1968143835977</v>
+        <v>139.5061993975829</v>
       </c>
       <c r="L31" t="n">
-        <v>492.7066932755267</v>
+        <v>294.4792500770232</v>
       </c>
       <c r="M31" t="n">
-        <v>579.0229368828331</v>
+        <v>380.7954936843295</v>
       </c>
       <c r="N31" t="n">
-        <v>809.1186500243036</v>
+        <v>610.8912068258001</v>
       </c>
       <c r="O31" t="n">
-        <v>876.3621322499027</v>
+        <v>678.1346890513992</v>
       </c>
       <c r="P31" t="n">
-        <v>934.4311497293367</v>
+        <v>853.14123835764</v>
       </c>
       <c r="Q31" t="n">
         <v>934.4311497293367</v>
@@ -6683,10 +6683,10 @@
         <v>1079.835647385252</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3949368335529</v>
+        <v>836.3949368335534</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5341982765478</v>
+        <v>568.5341982765483</v>
       </c>
       <c r="G32" t="n">
         <v>293.5675727164808</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>751.7943163675041</v>
+        <v>639.4911862371954</v>
       </c>
       <c r="C33" t="n">
-        <v>722.5884056419534</v>
+        <v>466.7380711590126</v>
       </c>
       <c r="D33" t="n">
-        <v>575.0000990008972</v>
+        <v>462.6969688705886</v>
       </c>
       <c r="E33" t="n">
-        <v>417.3905700037519</v>
+        <v>305.0874398734434</v>
       </c>
       <c r="F33" t="n">
-        <v>272.4347800203687</v>
+        <v>303.6788542426924</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3219154623354</v>
+        <v>166.565989684659</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3219154623354</v>
+        <v>57.73359934811498</v>
       </c>
       <c r="I33" t="n">
         <v>57.73359934811498</v>
@@ -6801,28 +6801,28 @@
         <v>2139.115571330445</v>
       </c>
       <c r="R33" t="n">
-        <v>2122.298886254614</v>
+        <v>2061.116699721216</v>
       </c>
       <c r="S33" t="n">
-        <v>2100.458865986604</v>
+        <v>1895.729475100574</v>
       </c>
       <c r="T33" t="n">
-        <v>1901.218469033761</v>
+        <v>1696.489078147731</v>
       </c>
       <c r="U33" t="n">
-        <v>1674.31073264827</v>
+        <v>1613.128546114872</v>
       </c>
       <c r="V33" t="n">
-        <v>1440.059489173871</v>
+        <v>1378.877302640473</v>
       </c>
       <c r="W33" t="n">
-        <v>1187.544997507204</v>
+        <v>1126.362810973806</v>
       </c>
       <c r="X33" t="n">
-        <v>981.0180989127819</v>
+        <v>919.8359123793836</v>
       </c>
       <c r="Y33" t="n">
-        <v>775.2896631364323</v>
+        <v>806.5337373587558</v>
       </c>
     </row>
     <row r="34">
@@ -6856,25 +6856,25 @@
         <v>57.73359934811498</v>
       </c>
       <c r="J34" t="n">
-        <v>126.990607415565</v>
+        <v>69.4537792030772</v>
       </c>
       <c r="K34" t="n">
-        <v>280.1968143835976</v>
+        <v>222.6599861711098</v>
       </c>
       <c r="L34" t="n">
-        <v>352.0160782895118</v>
+        <v>294.479250077024</v>
       </c>
       <c r="M34" t="n">
-        <v>579.0229368828328</v>
+        <v>380.7954936843303</v>
       </c>
       <c r="N34" t="n">
-        <v>668.4280350382885</v>
+        <v>470.200591839786</v>
       </c>
       <c r="O34" t="n">
-        <v>759.4246004230965</v>
+        <v>678.1346890514</v>
       </c>
       <c r="P34" t="n">
-        <v>934.4311497293372</v>
+        <v>853.1412383576406</v>
       </c>
       <c r="Q34" t="n">
         <v>934.4311497293372</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.3122127696054</v>
+        <v>981.3122127696049</v>
       </c>
       <c r="C35" t="n">
-        <v>833.5113375177112</v>
+        <v>833.5113375177108</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1956773409124</v>
+        <v>696.195677340912</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0989030220035</v>
+        <v>532.098903022003</v>
       </c>
       <c r="F35" t="n">
-        <v>343.582100697788</v>
+        <v>343.5821006977876</v>
       </c>
       <c r="G35" t="n">
         <v>147.9594113705089</v>
@@ -6941,19 +6941,19 @@
         <v>265.8315613376909</v>
       </c>
       <c r="L35" t="n">
-        <v>581.9458456619202</v>
+        <v>550.4702215485755</v>
       </c>
       <c r="M35" t="n">
-        <v>913.8734930028559</v>
+        <v>882.3978688895113</v>
       </c>
       <c r="N35" t="n">
-        <v>1235.65490170517</v>
+        <v>1204.179277591825</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.375609933498</v>
+        <v>1461.899985820153</v>
       </c>
       <c r="P35" t="n">
-        <v>1676.395478659055</v>
+        <v>1644.919854545711</v>
       </c>
       <c r="Q35" t="n">
         <v>1736.656376398688</v>
@@ -6968,13 +6968,13 @@
         <v>1736.656376398688</v>
       </c>
       <c r="U35" t="n">
-        <v>1705.572084990854</v>
+        <v>1705.572084990853</v>
       </c>
       <c r="V35" t="n">
         <v>1596.61148666464</v>
       </c>
       <c r="W35" t="n">
-        <v>1465.431801996977</v>
+        <v>1465.431801996976</v>
       </c>
       <c r="X35" t="n">
         <v>1313.715266692328</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>611.0410264978793</v>
+        <v>192.3426565251191</v>
       </c>
       <c r="C36" t="n">
-        <v>438.2879114196965</v>
+        <v>192.3426565251191</v>
       </c>
       <c r="D36" t="n">
-        <v>438.2879114196965</v>
+        <v>192.3426565251191</v>
       </c>
       <c r="E36" t="n">
-        <v>280.6783824225512</v>
+        <v>34.73312752797376</v>
       </c>
       <c r="F36" t="n">
-        <v>280.6783824225512</v>
+        <v>34.73312752797376</v>
       </c>
       <c r="G36" t="n">
-        <v>143.5655178645178</v>
+        <v>34.73312752797376</v>
       </c>
       <c r="H36" t="n">
         <v>34.73312752797376</v>
@@ -7026,13 +7026,13 @@
         <v>665.5940521215911</v>
       </c>
       <c r="N36" t="n">
-        <v>1033.945524845356</v>
+        <v>1095.416505280266</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.125339395435</v>
+        <v>1429.596319830345</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.907561306063</v>
+        <v>1681.378541740973</v>
       </c>
       <c r="Q36" t="n">
         <v>1736.656376398688</v>
@@ -7041,25 +7041,25 @@
         <v>1736.656376398688</v>
       </c>
       <c r="S36" t="n">
-        <v>1736.656376398688</v>
+        <v>1571.269151778046</v>
       </c>
       <c r="T36" t="n">
-        <v>1537.415979445845</v>
+        <v>1372.028754825203</v>
       </c>
       <c r="U36" t="n">
-        <v>1310.508243060354</v>
+        <v>1258.406277158517</v>
       </c>
       <c r="V36" t="n">
-        <v>1299.148140171377</v>
+        <v>1024.155033684118</v>
       </c>
       <c r="W36" t="n">
-        <v>1190.338911990212</v>
+        <v>771.6405420174516</v>
       </c>
       <c r="X36" t="n">
-        <v>983.8120133957893</v>
+        <v>565.1136434230291</v>
       </c>
       <c r="Y36" t="n">
-        <v>778.0835776194398</v>
+        <v>359.3852076466795</v>
       </c>
     </row>
     <row r="37">
@@ -7132,10 +7132,10 @@
         <v>290.9818162827995</v>
       </c>
       <c r="W37" t="n">
-        <v>224.890555971842</v>
+        <v>40.26659293478355</v>
       </c>
       <c r="X37" t="n">
-        <v>219.3570905650322</v>
+        <v>34.73312752797376</v>
       </c>
       <c r="Y37" t="n">
         <v>34.73312752797376</v>
@@ -7172,22 +7172,22 @@
         <v>34.73312752797376</v>
       </c>
       <c r="J38" t="n">
-        <v>78.28379996707721</v>
+        <v>83.24209196841321</v>
       </c>
       <c r="K38" t="n">
-        <v>265.8315613376909</v>
+        <v>270.7898533390269</v>
       </c>
       <c r="L38" t="n">
-        <v>550.4702215485755</v>
+        <v>555.4285135499115</v>
       </c>
       <c r="M38" t="n">
-        <v>882.3978688895113</v>
+        <v>887.3561608908471</v>
       </c>
       <c r="N38" t="n">
-        <v>1204.179277591825</v>
+        <v>1209.137569593161</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.899985820153</v>
+        <v>1466.858277821489</v>
       </c>
       <c r="P38" t="n">
         <v>1649.878146547047</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>425.6341724059344</v>
+        <v>500.0303392305959</v>
       </c>
       <c r="C39" t="n">
-        <v>425.6341724059344</v>
+        <v>327.2772241524131</v>
       </c>
       <c r="D39" t="n">
-        <v>425.6341724059344</v>
+        <v>179.6889175113569</v>
       </c>
       <c r="E39" t="n">
-        <v>425.6341724059344</v>
+        <v>179.6889175113569</v>
       </c>
       <c r="F39" t="n">
-        <v>280.6783824225512</v>
+        <v>34.73312752797376</v>
       </c>
       <c r="G39" t="n">
-        <v>143.5655178645178</v>
+        <v>34.73312752797376</v>
       </c>
       <c r="H39" t="n">
         <v>34.73312752797376</v>
@@ -7251,22 +7251,22 @@
         <v>34.73312752797376</v>
       </c>
       <c r="J39" t="n">
-        <v>68.45365486261065</v>
+        <v>34.73312752797376</v>
       </c>
       <c r="K39" t="n">
-        <v>252.6930202363593</v>
+        <v>218.9724929017224</v>
       </c>
       <c r="L39" t="n">
-        <v>561.2751904944402</v>
+        <v>527.5546631598032</v>
       </c>
       <c r="M39" t="n">
-        <v>604.1230716866811</v>
+        <v>855.9052935973085</v>
       </c>
       <c r="N39" t="n">
-        <v>1033.945524845356</v>
+        <v>1285.727746755984</v>
       </c>
       <c r="O39" t="n">
-        <v>1368.125339395435</v>
+        <v>1619.907561306063</v>
       </c>
       <c r="P39" t="n">
         <v>1619.907561306063</v>
@@ -7278,25 +7278,25 @@
         <v>1658.657504789459</v>
       </c>
       <c r="S39" t="n">
-        <v>1658.657504789459</v>
+        <v>1493.270280168817</v>
       </c>
       <c r="T39" t="n">
-        <v>1459.417107836616</v>
+        <v>1493.270280168817</v>
       </c>
       <c r="U39" t="n">
-        <v>1232.509371451125</v>
+        <v>1266.362543783326</v>
       </c>
       <c r="V39" t="n">
-        <v>1051.718113788584</v>
+        <v>1032.111300308927</v>
       </c>
       <c r="W39" t="n">
-        <v>799.2036221219173</v>
+        <v>873.5997889465788</v>
       </c>
       <c r="X39" t="n">
-        <v>592.6767235274948</v>
+        <v>667.0728903521563</v>
       </c>
       <c r="Y39" t="n">
-        <v>592.6767235274948</v>
+        <v>667.0728903521563</v>
       </c>
     </row>
     <row r="40">
@@ -7366,10 +7366,10 @@
         <v>323.5819394013566</v>
       </c>
       <c r="V40" t="n">
-        <v>290.9818162827995</v>
+        <v>106.3578532457412</v>
       </c>
       <c r="W40" t="n">
-        <v>224.8905559718419</v>
+        <v>40.26659293478358</v>
       </c>
       <c r="X40" t="n">
         <v>34.73312752797376</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1146.866986026318</v>
+        <v>1146.86698602632</v>
       </c>
       <c r="C41" t="n">
-        <v>972.010369409248</v>
+        <v>972.0103694092494</v>
       </c>
       <c r="D41" t="n">
-        <v>807.6389678672733</v>
+        <v>807.6389678672746</v>
       </c>
       <c r="E41" t="n">
-        <v>616.4864521831882</v>
+        <v>616.4864521831896</v>
       </c>
       <c r="F41" t="n">
-        <v>404.792482684398</v>
+        <v>400.9139084937981</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1140519919438</v>
+        <v>178.2354778013422</v>
       </c>
       <c r="H41" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="I41" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="J41" t="n">
-        <v>85.38269922333619</v>
+        <v>85.38269922333606</v>
       </c>
       <c r="K41" t="n">
-        <v>272.93046059395</v>
+        <v>272.9304605939496</v>
       </c>
       <c r="L41" t="n">
-        <v>557.5691208048347</v>
+        <v>557.5691208048341</v>
       </c>
       <c r="M41" t="n">
-        <v>889.4967681457706</v>
+        <v>1075.240452259714</v>
       </c>
       <c r="N41" t="n">
-        <v>1211.278176848085</v>
+        <v>1397.021860962027</v>
       </c>
       <c r="O41" t="n">
-        <v>1656.382297970679</v>
+        <v>1846.680843966118</v>
       </c>
       <c r="P41" t="n">
-        <v>2031.340441472</v>
+        <v>2029.700712691675</v>
       </c>
       <c r="Q41" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="R41" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="S41" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="T41" t="n">
-        <v>2064.545597846457</v>
+        <v>2064.545597846459</v>
       </c>
       <c r="U41" t="n">
-        <v>2006.405565073446</v>
+        <v>2006.405565073449</v>
       </c>
       <c r="V41" t="n">
-        <v>1870.389225382057</v>
+        <v>1870.389225382059</v>
       </c>
       <c r="W41" t="n">
-        <v>1712.153799349217</v>
+        <v>1712.153799349219</v>
       </c>
       <c r="X41" t="n">
-        <v>1533.381522679393</v>
+        <v>1533.381522679395</v>
       </c>
       <c r="Y41" t="n">
-        <v>1338.623920130714</v>
+        <v>1338.623920130716</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>569.5739685200376</v>
+        <v>664.738767484</v>
       </c>
       <c r="C42" t="n">
-        <v>569.5739685200376</v>
+        <v>491.9856524058172</v>
       </c>
       <c r="D42" t="n">
-        <v>421.9856618789814</v>
+        <v>344.3973457647611</v>
       </c>
       <c r="E42" t="n">
-        <v>264.3761328818362</v>
+        <v>186.7878167676158</v>
       </c>
       <c r="F42" t="n">
-        <v>119.420342898453</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="G42" t="n">
-        <v>119.420342898453</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="H42" t="n">
-        <v>119.420342898453</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="I42" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="J42" t="n">
-        <v>75.55255411886958</v>
+        <v>75.55255411886952</v>
       </c>
       <c r="K42" t="n">
-        <v>259.7919194926184</v>
+        <v>259.7919194926181</v>
       </c>
       <c r="L42" t="n">
-        <v>568.3740897506993</v>
+        <v>568.3740897506989</v>
       </c>
       <c r="M42" t="n">
-        <v>981.2751216359312</v>
+        <v>949.662462081003</v>
       </c>
       <c r="N42" t="n">
-        <v>1388.8904876583</v>
+        <v>1388.890487658303</v>
       </c>
       <c r="O42" t="n">
-        <v>1723.070302208379</v>
+        <v>1723.070302208381</v>
       </c>
       <c r="P42" t="n">
-        <v>1974.852524119007</v>
+        <v>1974.852524119009</v>
       </c>
       <c r="Q42" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="R42" t="n">
-        <v>2091.601339211633</v>
+        <v>2013.602467602406</v>
       </c>
       <c r="S42" t="n">
-        <v>1926.21411459099</v>
+        <v>1848.215242981763</v>
       </c>
       <c r="T42" t="n">
-        <v>1726.973717638147</v>
+        <v>1648.97484602892</v>
       </c>
       <c r="U42" t="n">
-        <v>1500.065981252656</v>
+        <v>1617.902508863675</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.814737778257</v>
+        <v>1383.651265389276</v>
       </c>
       <c r="W42" t="n">
-        <v>1013.300246111591</v>
+        <v>1131.136773722609</v>
       </c>
       <c r="X42" t="n">
-        <v>942.3449554179476</v>
+        <v>1037.50975438191</v>
       </c>
       <c r="Y42" t="n">
-        <v>736.6165196415981</v>
+        <v>831.7813186055605</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="C43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="D43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="E43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="F43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="G43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="H43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="I43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="J43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="K43" t="n">
-        <v>54.34761876625053</v>
+        <v>54.34761876625046</v>
       </c>
       <c r="L43" t="n">
-        <v>126.1668826721647</v>
+        <v>126.1668826721646</v>
       </c>
       <c r="M43" t="n">
-        <v>212.4831262794711</v>
+        <v>212.4831262794708</v>
       </c>
       <c r="N43" t="n">
-        <v>301.8882244349268</v>
+        <v>302.2798642843259</v>
       </c>
       <c r="O43" t="n">
-        <v>369.131706660526</v>
+        <v>369.523346509925</v>
       </c>
       <c r="P43" t="n">
-        <v>403.447640980752</v>
+        <v>403.8392808301509</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.447640980752</v>
+        <v>403.8392808301509</v>
       </c>
       <c r="R43" t="n">
-        <v>403.8392808301506</v>
+        <v>403.8392808301509</v>
       </c>
       <c r="S43" t="n">
-        <v>379.2252419814163</v>
+        <v>379.2252419814166</v>
       </c>
       <c r="T43" t="n">
-        <v>345.4402433960905</v>
+        <v>345.4402433960907</v>
       </c>
       <c r="U43" t="n">
-        <v>252.3469569279283</v>
+        <v>252.3469569279285</v>
       </c>
       <c r="V43" t="n">
-        <v>192.6910924441952</v>
+        <v>192.6910924441954</v>
       </c>
       <c r="W43" t="n">
-        <v>99.54409076806171</v>
+        <v>99.54409076806181</v>
       </c>
       <c r="X43" t="n">
-        <v>66.95488399607595</v>
+        <v>66.95488399607602</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1146.866986026319</v>
+        <v>1146.866986026321</v>
       </c>
       <c r="C44" t="n">
-        <v>972.0103694092486</v>
+        <v>972.0103694092504</v>
       </c>
       <c r="D44" t="n">
-        <v>807.6389678672738</v>
+        <v>807.6389678672756</v>
       </c>
       <c r="E44" t="n">
-        <v>616.4864521831886</v>
+        <v>616.4864521831904</v>
       </c>
       <c r="F44" t="n">
-        <v>400.9139084937972</v>
+        <v>400.913908493799</v>
       </c>
       <c r="G44" t="n">
         <v>182.1140519919438</v>
       </c>
       <c r="H44" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="I44" t="n">
-        <v>50.67688197147126</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="J44" t="n">
-        <v>94.22755441057475</v>
+        <v>272.7661121176059</v>
       </c>
       <c r="K44" t="n">
-        <v>281.7753157811885</v>
+        <v>460.3138734882195</v>
       </c>
       <c r="L44" t="n">
-        <v>566.4139759920732</v>
+        <v>936.8908084748671</v>
       </c>
       <c r="M44" t="n">
-        <v>1084.085307446952</v>
+        <v>1268.818455815803</v>
       </c>
       <c r="N44" t="n">
-        <v>1405.866716149266</v>
+        <v>1590.599864518116</v>
       </c>
       <c r="O44" t="n">
-        <v>1663.587424377594</v>
+        <v>1848.320572746444</v>
       </c>
       <c r="P44" t="n">
-        <v>2031.340441472</v>
+        <v>2031.340441472002</v>
       </c>
       <c r="Q44" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="R44" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="T44" t="n">
-        <v>2064.545597846457</v>
+        <v>2064.545597846459</v>
       </c>
       <c r="U44" t="n">
-        <v>2006.405565073447</v>
+        <v>2006.405565073449</v>
       </c>
       <c r="V44" t="n">
-        <v>1870.389225382057</v>
+        <v>1870.389225382059</v>
       </c>
       <c r="W44" t="n">
-        <v>1712.153799349218</v>
+        <v>1712.15379934922</v>
       </c>
       <c r="X44" t="n">
-        <v>1533.381522679394</v>
+        <v>1533.381522679396</v>
       </c>
       <c r="Y44" t="n">
-        <v>1338.623920130715</v>
+        <v>1338.623920130716</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>509.3075354175942</v>
+        <v>523.0460401315912</v>
       </c>
       <c r="C45" t="n">
-        <v>336.5544203394114</v>
+        <v>350.2929250534084</v>
       </c>
       <c r="D45" t="n">
-        <v>336.5544203394114</v>
+        <v>202.7046184123523</v>
       </c>
       <c r="E45" t="n">
-        <v>178.9448913422661</v>
+        <v>45.09508941520696</v>
       </c>
       <c r="F45" t="n">
-        <v>178.9448913422661</v>
+        <v>45.09508941520696</v>
       </c>
       <c r="G45" t="n">
-        <v>41.83202678423266</v>
+        <v>45.09508941520696</v>
       </c>
       <c r="H45" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="I45" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
       <c r="J45" t="n">
-        <v>75.55255411886957</v>
+        <v>75.55255411886958</v>
       </c>
       <c r="K45" t="n">
-        <v>259.7919194926183</v>
+        <v>228.1792599376905</v>
       </c>
       <c r="L45" t="n">
-        <v>568.3740897506991</v>
+        <v>536.7614301957713</v>
       </c>
       <c r="M45" t="n">
-        <v>981.2751216359309</v>
+        <v>949.6624620810029</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.890487658301</v>
+        <v>1388.890487658303</v>
       </c>
       <c r="O45" t="n">
-        <v>1723.070302208379</v>
+        <v>1723.070302208381</v>
       </c>
       <c r="P45" t="n">
-        <v>1974.852524119007</v>
+        <v>1974.852524119009</v>
       </c>
       <c r="Q45" t="n">
-        <v>2091.601339211633</v>
+        <v>2091.601339211635</v>
       </c>
       <c r="R45" t="n">
-        <v>2013.602467602404</v>
+        <v>2013.602467602406</v>
       </c>
       <c r="S45" t="n">
-        <v>1848.215242981761</v>
+        <v>1848.215242981763</v>
       </c>
       <c r="T45" t="n">
-        <v>1648.974846028918</v>
+        <v>1648.97484602892</v>
       </c>
       <c r="U45" t="n">
-        <v>1422.067109643427</v>
+        <v>1422.067109643429</v>
       </c>
       <c r="V45" t="n">
-        <v>1187.815866169028</v>
+        <v>1187.81586616903</v>
       </c>
       <c r="W45" t="n">
-        <v>935.3013745023615</v>
+        <v>935.3013745023633</v>
       </c>
       <c r="X45" t="n">
-        <v>728.7744759079389</v>
+        <v>728.7744759079408</v>
       </c>
       <c r="Y45" t="n">
-        <v>676.3500865391546</v>
+        <v>523.0460401315912</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.83202678423266</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="C46" t="n">
-        <v>41.83202678423266</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="D46" t="n">
-        <v>41.83202678423266</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="E46" t="n">
-        <v>41.83202678423266</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="F46" t="n">
-        <v>41.83202678423266</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="G46" t="n">
-        <v>41.83202678423266</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="H46" t="n">
-        <v>42.22366663363132</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="I46" t="n">
-        <v>42.22366663363132</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="J46" t="n">
-        <v>42.22366663363132</v>
+        <v>42.22366663363162</v>
       </c>
       <c r="K46" t="n">
-        <v>54.73925861564916</v>
+        <v>54.73925861564943</v>
       </c>
       <c r="L46" t="n">
-        <v>126.5585225215634</v>
+        <v>126.5585225215636</v>
       </c>
       <c r="M46" t="n">
-        <v>212.8747661288697</v>
+        <v>212.8747661288699</v>
       </c>
       <c r="N46" t="n">
-        <v>302.2798642843254</v>
+        <v>302.2798642843255</v>
       </c>
       <c r="O46" t="n">
-        <v>369.5233465099246</v>
+        <v>369.5233465099247</v>
       </c>
       <c r="P46" t="n">
         <v>403.8392808301506</v>
@@ -7837,19 +7837,19 @@
         <v>345.4402433960905</v>
       </c>
       <c r="U46" t="n">
-        <v>252.3469569279283</v>
+        <v>252.3469569279284</v>
       </c>
       <c r="V46" t="n">
         <v>192.6910924441952</v>
       </c>
       <c r="W46" t="n">
-        <v>99.54409076806171</v>
+        <v>99.54409076806175</v>
       </c>
       <c r="X46" t="n">
-        <v>66.95488399607595</v>
+        <v>66.95488399607599</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.83202678423266</v>
+        <v>41.8320267842327</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8705,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>334.6706564983433</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8778,13 +8778,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>83.43087010016478</v>
+        <v>480.9859951693828</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>72.06144381539595</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>271.2015225487182</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -9003,10 +9003,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.07353803216974</v>
+        <v>97.07353803216975</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>249.105228378121</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,10 +9015,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0473770544222</v>
+        <v>480.9859951693828</v>
       </c>
       <c r="O15" t="n">
-        <v>72.06144381539592</v>
+        <v>72.06144381539593</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
@@ -9240,16 +9240,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07353803216975</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94347742868915</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>86.7781412307812</v>
+        <v>306.9396490170292</v>
       </c>
       <c r="N18" t="n">
         <v>480.9859951693829</v>
@@ -9477,10 +9477,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07353803216975</v>
       </c>
       <c r="K21" t="n">
-        <v>88.94347742868915</v>
+        <v>249.1052283781211</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9489,10 +9489,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>269.5312391645567</v>
+        <v>480.9859951693829</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>72.06144381539593</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
@@ -9714,7 +9714,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.07353803216975</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9723,16 +9723,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>484.3332662999999</v>
+        <v>459.0317139613398</v>
       </c>
       <c r="N24" t="n">
-        <v>235.4201048751768</v>
+        <v>480.9859951693829</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>76.87580270813291</v>
       </c>
       <c r="Q24" t="n">
         <v>100.5522831921258</v>
@@ -10674,7 +10674,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9235916874627</v>
+        <v>489.0154911166646</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10683,7 +10683,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>156.3884798160805</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07353803216975</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10908,7 +10908,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>110.5422049939486</v>
+        <v>398.9288203932056</v>
       </c>
       <c r="N39" t="n">
         <v>489.0154911166647</v>
@@ -10917,7 +10917,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>76.87580270813291</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11145,10 +11145,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>484.3332662999999</v>
+        <v>452.4012869515884</v>
       </c>
       <c r="N42" t="n">
-        <v>466.5840899688805</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11376,7 +11376,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>243.1118671446698</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11385,7 +11385,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>466.5840899688811</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5206446984475</v>
       </c>
       <c r="C11" t="n">
-        <v>244.789330385995</v>
+        <v>244.7893303859951</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.984040975616</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0980981875932</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1329263206257</v>
+        <v>292.1329263206258</v>
       </c>
       <c r="H11" t="n">
-        <v>38.79448598381563</v>
+        <v>210.5604848907298</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.68127993509579</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>248.6658338382218</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.4913064582882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.3796894794226</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.789330385995</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>232.1568985895093</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0980981875932</v>
+        <v>285.0980981875933</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.1329263206258</v>
       </c>
       <c r="H14" t="n">
         <v>210.5604848907298</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.74708277626893</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.46646388661999</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.334351707607</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.839788448695145</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.839788448695646</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.839788448695344</v>
+        <v>3.839788448693471</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762519.3929318503</v>
+        <v>762519.3929318504</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871903.0463091929</v>
+        <v>871903.0463091928</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>690332.9210923795</v>
+      </c>
+      <c r="C2" t="n">
+        <v>690332.9210923793</v>
+      </c>
+      <c r="D2" t="n">
         <v>690332.9210923796</v>
       </c>
-      <c r="C2" t="n">
-        <v>690332.9210923794</v>
-      </c>
-      <c r="D2" t="n">
-        <v>690332.9210923794</v>
-      </c>
       <c r="E2" t="n">
-        <v>594018.5976760179</v>
+        <v>594018.5976760181</v>
       </c>
       <c r="F2" t="n">
-        <v>594018.5976760171</v>
+        <v>594018.5976760183</v>
       </c>
       <c r="G2" t="n">
-        <v>691831.4973226959</v>
+        <v>691831.4973226957</v>
       </c>
       <c r="H2" t="n">
-        <v>691831.4973226957</v>
+        <v>691831.4973226958</v>
       </c>
       <c r="I2" t="n">
-        <v>691831.4973226957</v>
+        <v>691831.4973226956</v>
       </c>
       <c r="J2" t="n">
-        <v>691831.4973226959</v>
+        <v>691831.4973226958</v>
       </c>
       <c r="K2" t="n">
         <v>691831.4973226958</v>
@@ -26344,16 +26344,16 @@
         <v>691831.4973226952</v>
       </c>
       <c r="M2" t="n">
-        <v>691831.4973226959</v>
+        <v>691831.4973226957</v>
       </c>
       <c r="N2" t="n">
-        <v>691831.497322696</v>
+        <v>691831.4973226961</v>
       </c>
       <c r="O2" t="n">
-        <v>691571.6972362563</v>
+        <v>691571.6972362571</v>
       </c>
       <c r="P2" t="n">
-        <v>691571.6972362566</v>
+        <v>691571.6972362573</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330125.0320334482</v>
+        <v>330125.0320334483</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80850.56230077671</v>
+        <v>80850.56230077673</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>80850.56230077667</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.22415100675</v>
+        <v>97387.22415100673</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32765.14144676317</v>
+        <v>32765.14144676324</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>286539.6522453394</v>
       </c>
       <c r="F4" t="n">
-        <v>286539.6522453393</v>
+        <v>286539.6522453394</v>
       </c>
       <c r="G4" t="n">
         <v>351959.210248361</v>
       </c>
       <c r="H4" t="n">
-        <v>351959.2102483609</v>
+        <v>351959.210248361</v>
       </c>
       <c r="I4" t="n">
         <v>351959.210248361</v>
@@ -26454,10 +26454,10 @@
         <v>351745.1818640061</v>
       </c>
       <c r="O4" t="n">
-        <v>349205.5621323513</v>
+        <v>349205.5621323516</v>
       </c>
       <c r="P4" t="n">
-        <v>349205.5621323513</v>
+        <v>349205.5621323514</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>39034.62600619773</v>
       </c>
       <c r="F5" t="n">
-        <v>39034.62600619774</v>
+        <v>39034.62600619773</v>
       </c>
       <c r="G5" t="n">
         <v>47530.90840877773</v>
@@ -26506,10 +26506,10 @@
         <v>47800.79651227672</v>
       </c>
       <c r="O5" t="n">
-        <v>50944.1563174128</v>
+        <v>50944.15631741281</v>
       </c>
       <c r="P5" t="n">
-        <v>50944.1563174128</v>
+        <v>50944.15631741282</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234694.6958056119</v>
+        <v>234690.2882284638</v>
       </c>
       <c r="C6" t="n">
-        <v>234694.6958056116</v>
+        <v>234690.2882284635</v>
       </c>
       <c r="D6" t="n">
-        <v>234694.6958056116</v>
+        <v>234690.2882284639</v>
       </c>
       <c r="E6" t="n">
-        <v>-61680.71260896735</v>
+        <v>-61968.39760792811</v>
       </c>
       <c r="F6" t="n">
-        <v>268444.3194244801</v>
+        <v>268156.6344255204</v>
       </c>
       <c r="G6" t="n">
-        <v>211490.8163647805</v>
+        <v>211490.8163647802</v>
       </c>
       <c r="H6" t="n">
-        <v>292341.378665557</v>
+        <v>292341.3786655571</v>
       </c>
       <c r="I6" t="n">
-        <v>292341.378665557</v>
+        <v>292341.3786655568</v>
       </c>
       <c r="J6" t="n">
-        <v>172891.7513688286</v>
+        <v>172891.7513688285</v>
       </c>
       <c r="K6" t="n">
         <v>283055.63746433</v>
@@ -26552,16 +26552,16 @@
         <v>202205.0751635528</v>
       </c>
       <c r="M6" t="n">
-        <v>194898.2947954064</v>
+        <v>194898.2947954061</v>
       </c>
       <c r="N6" t="n">
-        <v>292285.5189464132</v>
+        <v>292285.5189464133</v>
       </c>
       <c r="O6" t="n">
-        <v>258656.837339729</v>
+        <v>258656.0732218283</v>
       </c>
       <c r="P6" t="n">
-        <v>291421.9787864924</v>
+        <v>291421.2146685917</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>220.6622291795675</v>
       </c>
       <c r="O2" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="P2" t="n">
         <v>193.8770452280434</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.8608553265867</v>
+        <v>130.8608553265869</v>
       </c>
       <c r="F3" t="n">
-        <v>130.860855326587</v>
+        <v>130.8608553265869</v>
       </c>
       <c r="G3" t="n">
         <v>130.8608553265869</v>
@@ -26774,10 +26774,10 @@
         <v>130.8608553265869</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8608553265872</v>
+        <v>130.8608553265867</v>
       </c>
       <c r="P3" t="n">
-        <v>130.8608553265871</v>
+        <v>130.8608553265869</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.1345981523903</v>
+        <v>426.1345981523902</v>
       </c>
       <c r="F4" t="n">
-        <v>426.1345981523903</v>
+        <v>426.1345981523902</v>
       </c>
       <c r="G4" t="n">
         <v>426.1345981523903</v>
@@ -26820,16 +26820,16 @@
         <v>721.6699918514372</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1640940996721</v>
+        <v>434.164094099672</v>
       </c>
       <c r="N4" t="n">
         <v>434.1640940996721</v>
       </c>
       <c r="O4" t="n">
-        <v>522.9003348029082</v>
+        <v>522.9003348029087</v>
       </c>
       <c r="P4" t="n">
-        <v>522.9003348029082</v>
+        <v>522.9003348029087</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.04852943313503</v>
+        <v>41.04852943313502</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.26334548161086</v>
+        <v>14.26334548161081</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.8608553265867</v>
+        <v>130.8608553265869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.1345981523903</v>
+        <v>426.1345981523902</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.6287004006251</v>
+        <v>138.628700400625</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>88.73624070323615</v>
+        <v>88.7362407032366</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.04852943313503</v>
+        <v>41.04852943313502</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.1345981523903</v>
+        <v>426.1345981523902</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,25 +28169,25 @@
         <v>122.1957652929476</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.1957652929476</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>122.1957652929476</v>
       </c>
       <c r="E12" t="n">
         <v>122.1957652929476</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.1957652929476</v>
       </c>
       <c r="G12" t="n">
-        <v>122.1957652929476</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>68.88539183750137</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.8124329530782</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.21888289313686</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>83.74354063732915</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>122.1957652929476</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>122.1957652929476</v>
       </c>
       <c r="W12" t="n">
-        <v>122.1957652929476</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>122.1957652929476</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.8048399736058</v>
+        <v>108.8048399736059</v>
       </c>
       <c r="S14" t="n">
         <v>122.1957652929476</v>
@@ -28409,22 +28409,22 @@
         <v>122.1957652929476</v>
       </c>
       <c r="D15" t="n">
-        <v>23.90850943769071</v>
+        <v>122.1957652929476</v>
       </c>
       <c r="E15" t="n">
         <v>122.1957652929476</v>
       </c>
       <c r="F15" t="n">
-        <v>122.1957652929476</v>
+        <v>83.74354063732929</v>
       </c>
       <c r="G15" t="n">
         <v>122.1957652929476</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.8124329530782</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>122.1957652929476</v>
-      </c>
-      <c r="U15" t="n">
-        <v>122.1957652929476</v>
-      </c>
-      <c r="V15" t="n">
-        <v>122.1957652929476</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28524,7 +28524,7 @@
         <v>122.1957652929476</v>
       </c>
       <c r="P16" t="n">
-        <v>122.1957652929471</v>
+        <v>122.1957652929476</v>
       </c>
       <c r="Q16" t="n">
         <v>122.1957652929476</v>
@@ -28643,16 +28643,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.7417359124531</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.21888289313682</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>223.2589681689185</v>
+        <v>149.6557492395084</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>91.07988976231135</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28728,10 +28728,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>97.37222722956119</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>167.6536103385355</v>
@@ -28770,7 +28770,7 @@
         <v>162.7806920887118</v>
       </c>
       <c r="S19" t="n">
-        <v>218.2449436882903</v>
+        <v>22.48352533484783</v>
       </c>
       <c r="T19" t="n">
         <v>223.2589681689185</v>
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>139.8354466211029</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.7417359124531</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I21" t="n">
         <v>76.8124329530782</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.21888289313682</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7333523744359</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>70.15218150684795</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>133.3278396517607</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.00071072153355</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>162.7806920887118</v>
+        <v>27.01998445680289</v>
       </c>
       <c r="S22" t="n">
         <v>218.2449436882903</v>
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>52.32150744444925</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>135.7417359124531</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7440664331786</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.8124329530782</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.21888289313682</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>223.2589681689185</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>91.40800447694454</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29241,7 +29241,7 @@
         <v>60.00071072153355</v>
       </c>
       <c r="R25" t="n">
-        <v>162.7806920887118</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>218.2449436882903</v>
@@ -29250,7 +29250,7 @@
         <v>223.2589681689185</v>
       </c>
       <c r="U25" t="n">
-        <v>27.49754981547602</v>
+        <v>223.2589681689185</v>
       </c>
       <c r="V25" t="n">
         <v>223.2589681689185</v>
@@ -29259,7 +29259,7 @@
         <v>223.2589681689185</v>
       </c>
       <c r="X25" t="n">
-        <v>223.2589681689185</v>
+        <v>190.2782419041878</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29360,16 +29360,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>142.1117323091059</v>
       </c>
       <c r="F27" t="n">
-        <v>142.1117323091059</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7417359124531</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I27" t="n">
         <v>76.8124329530782</v>
@@ -29402,19 +29402,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>142.1117323091059</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>132.2396604207448</v>
       </c>
       <c r="V27" t="n">
-        <v>142.1117323091059</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>91.50199814816455</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>142.1117323091059</v>
       </c>
       <c r="L28" t="n">
-        <v>93.94958709763443</v>
+        <v>142.1117323091059</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29469,10 +29469,10 @@
         <v>142.1117323091059</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1117323091059</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>93.94958709763434</v>
       </c>
       <c r="Q28" t="n">
         <v>60.00071072153355</v>
@@ -29591,25 +29591,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>142.1117323091059</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>142.1117323091059</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>125.8696640240917</v>
       </c>
       <c r="H30" t="n">
         <v>107.7440664331786</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.8124329530782</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,19 +29639,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.1117323091059</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>60.57036466806377</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>142.1117323091059</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29694,10 +29694,10 @@
         <v>142.1117323091059</v>
       </c>
       <c r="K31" t="n">
-        <v>142.1117323091059</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>142.1117323091059</v>
+        <v>83.99372401366284</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29709,10 +29709,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>23.9930132921293</v>
+        <v>142.1117323091059</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.00071072153355</v>
+        <v>142.1117323091059</v>
       </c>
       <c r="R31" t="n">
         <v>142.1117323091059</v>
@@ -29788,10 +29788,10 @@
         <v>142.1117323091059</v>
       </c>
       <c r="P32" t="n">
+        <v>142.1117323091065</v>
+      </c>
+      <c r="Q32" t="n">
         <v>142.1117323091059</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>142.1117323091063</v>
       </c>
       <c r="R32" t="n">
         <v>142.1117323091059</v>
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>142.1117323091059</v>
       </c>
-      <c r="C33" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>142.1117323091059</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7440664331786</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.8124329530782</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,17 +29873,17 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>60.57036466806441</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>142.1117323091059</v>
       </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>91.50199814816459</v>
       </c>
     </row>
     <row r="34">
@@ -29928,7 +29928,7 @@
         <v>142.1117323091059</v>
       </c>
       <c r="J34" t="n">
-        <v>142.1117323091059</v>
+        <v>83.99372401366365</v>
       </c>
       <c r="K34" t="n">
         <v>142.1117323091059</v>
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>142.1117323091059</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>23.99301329213017</v>
       </c>
       <c r="P34" t="n">
         <v>142.1117323091059</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.00071072153355</v>
+        <v>142.1117323091059</v>
       </c>
       <c r="R34" t="n">
         <v>142.1117323091059</v>
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>31.79355971044919</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>31.79355971044894</v>
       </c>
       <c r="R35" t="n">
         <v>108.8048399736059</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -30077,10 +30077,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7417359124531</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I36" t="n">
         <v>76.8124329530782</v>
@@ -30113,19 +30113,19 @@
         <v>77.21888289313682</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7333523744359</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>112.1524061316178</v>
       </c>
       <c r="V36" t="n">
-        <v>220.6622291795676</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>142.2682108506464</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30204,13 +30204,13 @@
         <v>220.6622291795676</v>
       </c>
       <c r="W37" t="n">
-        <v>220.6622291795676</v>
+        <v>37.88450577287975</v>
       </c>
       <c r="X37" t="n">
         <v>220.6622291795676</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.97095046108043</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -30244,7 +30244,7 @@
         <v>184.9428480692165</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.00837575892524</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>5.008375758925155</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30302,10 +30302,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -30314,10 +30314,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7417359124531</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7440664331786</v>
       </c>
       <c r="I39" t="n">
         <v>76.8124329530782</v>
@@ -30350,19 +30350,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7333523744359</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2479929833146</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>52.92538595373949</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>93.06295050127579</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30438,13 +30438,13 @@
         <v>220.6622291795675</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6622291795675</v>
+        <v>37.88450577287983</v>
       </c>
       <c r="W40" t="n">
         <v>220.6622291795675</v>
       </c>
       <c r="X40" t="n">
-        <v>37.88450577287981</v>
+        <v>220.6622291795675</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="C41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="D41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="E41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="F41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="G41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="H41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="I41" t="n">
         <v>184.9428480692165</v>
@@ -30490,43 +30490,43 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>187.6198829433778</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>189.2761746406733</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="P41" t="n">
-        <v>193.8770452280434</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.65629169729953</v>
       </c>
       <c r="R41" t="n">
-        <v>108.8048399736058</v>
+        <v>108.8048399736059</v>
       </c>
       <c r="S41" t="n">
         <v>193.8770452280433</v>
       </c>
       <c r="T41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="U41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="V41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="W41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="X41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>107.7440664331786</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.81243295307821</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.21888289313679</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>134.2158918217717</v>
+        <v>111.7708804611863</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>146.6620269708405</v>
       </c>
       <c r="J43" t="n">
-        <v>72.15515850360077</v>
+        <v>72.15515850360083</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.3955958074742938</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.00071072153351</v>
+        <v>60.00071072153358</v>
       </c>
       <c r="R43" t="n">
-        <v>163.1762878961851</v>
+        <v>162.7806920887118</v>
       </c>
       <c r="S43" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="T43" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="U43" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="V43" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="W43" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="X43" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.8770452280434</v>
+        <v>193.8770452280433</v>
       </c>
     </row>
     <row r="44">
@@ -30715,19 +30715,19 @@
         <v>193.8770452280434</v>
       </c>
       <c r="I44" t="n">
+        <v>184.9428480692165</v>
+      </c>
+      <c r="J44" t="n">
+        <v>189.2761746406765</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>193.8770452280434</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
-        <v>187.6198829433771</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>186.599139766513</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.8048399736058</v>
+        <v>108.8048399736059</v>
       </c>
       <c r="S44" t="n">
         <v>193.8770452280434</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7417359124531</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7440664331786</v>
+        <v>104.5136344285141</v>
       </c>
       <c r="I45" t="n">
-        <v>76.81243295307819</v>
+        <v>76.8124329530782</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>151.7710059434895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>180.4792872981575</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30870,13 +30870,13 @@
         <v>167.6536103385355</v>
       </c>
       <c r="H46" t="n">
-        <v>159.9316036113181</v>
+        <v>159.5360078038447</v>
       </c>
       <c r="I46" t="n">
         <v>146.6620269708405</v>
       </c>
       <c r="J46" t="n">
-        <v>72.15515850360079</v>
+        <v>72.1551585036008</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.00071072153353</v>
+        <v>60.00071072153355</v>
       </c>
       <c r="R46" t="n">
         <v>162.7806920887118</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5260737902576346</v>
+        <v>0.5260737902576355</v>
       </c>
       <c r="H11" t="n">
-        <v>5.387653204476001</v>
+        <v>5.387653204476011</v>
       </c>
       <c r="I11" t="n">
-        <v>20.28145979890747</v>
+        <v>20.28145979890751</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64985535587895</v>
+        <v>44.64985535587903</v>
       </c>
       <c r="K11" t="n">
-        <v>66.91855889748463</v>
+        <v>66.91855889748474</v>
       </c>
       <c r="L11" t="n">
-        <v>83.01838965608174</v>
+        <v>83.01838965608188</v>
       </c>
       <c r="M11" t="n">
-        <v>92.37395442357594</v>
+        <v>92.37395442357609</v>
       </c>
       <c r="N11" t="n">
-        <v>93.86866158014544</v>
+        <v>93.86866158014561</v>
       </c>
       <c r="O11" t="n">
-        <v>88.63751532827109</v>
+        <v>88.63751532827125</v>
       </c>
       <c r="P11" t="n">
-        <v>75.65006863128572</v>
+        <v>75.65006863128586</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.81005101768417</v>
+        <v>56.81005101768427</v>
       </c>
       <c r="R11" t="n">
-        <v>33.04598272727117</v>
+        <v>33.04598272727122</v>
       </c>
       <c r="S11" t="n">
-        <v>11.98790649549586</v>
+        <v>11.98790649549588</v>
       </c>
       <c r="T11" t="n">
-        <v>2.302888016852796</v>
+        <v>2.3028880168528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04208590322061075</v>
+        <v>0.04208590322061083</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2814742925892619</v>
+        <v>0.2814742925892624</v>
       </c>
       <c r="H12" t="n">
-        <v>2.718449088954188</v>
+        <v>2.718449088954193</v>
       </c>
       <c r="I12" t="n">
-        <v>9.691110512393449</v>
+        <v>9.691110512393466</v>
       </c>
       <c r="J12" t="n">
-        <v>26.59314796783023</v>
+        <v>26.59314796783028</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45192557131078</v>
+        <v>45.45192557131086</v>
       </c>
       <c r="L12" t="n">
-        <v>61.11572304662901</v>
+        <v>61.11572304662911</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31916615298974</v>
+        <v>71.31916615298987</v>
       </c>
       <c r="N12" t="n">
-        <v>73.20677226425721</v>
+        <v>73.20677226425734</v>
       </c>
       <c r="O12" t="n">
-        <v>66.96989451793725</v>
+        <v>66.96989451793736</v>
       </c>
       <c r="P12" t="n">
-        <v>53.74924452083898</v>
+        <v>53.74924452083907</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.92994654174509</v>
+        <v>35.92994654174515</v>
       </c>
       <c r="R12" t="n">
-        <v>17.47609686795436</v>
+        <v>17.47609686795439</v>
       </c>
       <c r="S12" t="n">
-        <v>5.228261531208436</v>
+        <v>5.228261531208446</v>
       </c>
       <c r="T12" t="n">
-        <v>1.134538924954086</v>
+        <v>1.134538924954088</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01851804556508303</v>
+        <v>0.01851804556508306</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2359785915725333</v>
+        <v>0.2359785915725338</v>
       </c>
       <c r="H13" t="n">
-        <v>2.098064205072162</v>
+        <v>2.098064205072165</v>
       </c>
       <c r="I13" t="n">
-        <v>7.096519826563096</v>
+        <v>7.096519826563108</v>
       </c>
       <c r="J13" t="n">
-        <v>16.68368642417811</v>
+        <v>16.68368642417813</v>
       </c>
       <c r="K13" t="n">
-        <v>27.4164218208816</v>
+        <v>27.41642182088164</v>
       </c>
       <c r="L13" t="n">
-        <v>35.08358078706556</v>
+        <v>35.08358078706561</v>
       </c>
       <c r="M13" t="n">
-        <v>36.99071685895629</v>
+        <v>36.99071685895635</v>
       </c>
       <c r="N13" t="n">
-        <v>36.11116029036778</v>
+        <v>36.11116029036785</v>
       </c>
       <c r="O13" t="n">
-        <v>33.35450128881591</v>
+        <v>33.35450128881597</v>
       </c>
       <c r="P13" t="n">
-        <v>28.5405380207362</v>
+        <v>28.54053802073625</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.75998915431459</v>
+        <v>19.75998915431462</v>
       </c>
       <c r="R13" t="n">
-        <v>10.61045558107045</v>
+        <v>10.61045558107047</v>
       </c>
       <c r="S13" t="n">
-        <v>4.112463273132239</v>
+        <v>4.112463273132246</v>
       </c>
       <c r="T13" t="n">
-        <v>1.008272163991733</v>
+        <v>1.008272163991735</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01287155954032002</v>
+        <v>0.01287155954032004</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5260737902576357</v>
+        <v>0.5260737902576356</v>
       </c>
       <c r="H14" t="n">
-        <v>5.387653204476012</v>
+        <v>5.387653204476011</v>
       </c>
       <c r="I14" t="n">
         <v>20.28145979890752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64985535587905</v>
+        <v>44.64985535587903</v>
       </c>
       <c r="K14" t="n">
-        <v>66.91855889748477</v>
+        <v>66.91855889748476</v>
       </c>
       <c r="L14" t="n">
-        <v>83.01838965608191</v>
+        <v>83.01838965608189</v>
       </c>
       <c r="M14" t="n">
-        <v>92.37395442357614</v>
+        <v>92.37395442357612</v>
       </c>
       <c r="N14" t="n">
-        <v>93.86866158014566</v>
+        <v>93.86866158014563</v>
       </c>
       <c r="O14" t="n">
-        <v>88.63751532827128</v>
+        <v>88.63751532827126</v>
       </c>
       <c r="P14" t="n">
-        <v>75.65006863128589</v>
+        <v>75.65006863128588</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.81005101768429</v>
+        <v>56.81005101768428</v>
       </c>
       <c r="R14" t="n">
-        <v>33.04598272727124</v>
+        <v>33.04598272727123</v>
       </c>
       <c r="S14" t="n">
         <v>11.98790649549588</v>
@@ -32069,40 +32069,40 @@
         <v>0.2814742925892625</v>
       </c>
       <c r="H15" t="n">
-        <v>2.718449088954194</v>
+        <v>2.718449088954193</v>
       </c>
       <c r="I15" t="n">
-        <v>9.69111051239347</v>
+        <v>9.691110512393468</v>
       </c>
       <c r="J15" t="n">
-        <v>26.59314796783029</v>
+        <v>26.59314796783028</v>
       </c>
       <c r="K15" t="n">
         <v>45.45192557131087</v>
       </c>
       <c r="L15" t="n">
-        <v>61.11572304662914</v>
+        <v>61.11572304662913</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31916615298989</v>
+        <v>71.31916615298988</v>
       </c>
       <c r="N15" t="n">
-        <v>73.20677226425737</v>
+        <v>73.20677226425735</v>
       </c>
       <c r="O15" t="n">
-        <v>66.96989451793739</v>
+        <v>66.96989451793738</v>
       </c>
       <c r="P15" t="n">
-        <v>53.7492445208391</v>
+        <v>53.74924452083908</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.92994654174517</v>
+        <v>35.92994654174516</v>
       </c>
       <c r="R15" t="n">
-        <v>17.4760968679544</v>
+        <v>17.47609686795439</v>
       </c>
       <c r="S15" t="n">
-        <v>5.228261531208448</v>
+        <v>5.228261531208447</v>
       </c>
       <c r="T15" t="n">
         <v>1.134538924954088</v>
@@ -32151,25 +32151,25 @@
         <v>2.098064205072166</v>
       </c>
       <c r="I16" t="n">
-        <v>7.096519826563111</v>
+        <v>7.09651982656311</v>
       </c>
       <c r="J16" t="n">
         <v>16.68368642417814</v>
       </c>
       <c r="K16" t="n">
-        <v>27.41642182088166</v>
+        <v>27.41642182088165</v>
       </c>
       <c r="L16" t="n">
-        <v>35.08358078706563</v>
+        <v>35.08358078706562</v>
       </c>
       <c r="M16" t="n">
-        <v>36.99071685895637</v>
+        <v>36.99071685895636</v>
       </c>
       <c r="N16" t="n">
         <v>36.11116029036786</v>
       </c>
       <c r="O16" t="n">
-        <v>33.35450128881598</v>
+        <v>33.35450128881597</v>
       </c>
       <c r="P16" t="n">
         <v>28.54053802073626</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5260737902576365</v>
+        <v>0.5260737902576347</v>
       </c>
       <c r="H41" t="n">
-        <v>5.387653204476021</v>
+        <v>5.387653204476002</v>
       </c>
       <c r="I41" t="n">
-        <v>20.28145979890755</v>
+        <v>20.28145979890748</v>
       </c>
       <c r="J41" t="n">
-        <v>44.64985535587911</v>
+        <v>44.64985535587896</v>
       </c>
       <c r="K41" t="n">
-        <v>66.91855889748489</v>
+        <v>66.91855889748464</v>
       </c>
       <c r="L41" t="n">
-        <v>83.01838965608204</v>
+        <v>83.01838965608175</v>
       </c>
       <c r="M41" t="n">
-        <v>92.37395442357628</v>
+        <v>92.37395442357595</v>
       </c>
       <c r="N41" t="n">
-        <v>93.8686615801458</v>
+        <v>93.86866158014547</v>
       </c>
       <c r="O41" t="n">
-        <v>88.63751532827142</v>
+        <v>88.63751532827111</v>
       </c>
       <c r="P41" t="n">
-        <v>75.650068631286</v>
+        <v>75.65006863128573</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.81005101768438</v>
+        <v>56.81005101768418</v>
       </c>
       <c r="R41" t="n">
-        <v>33.04598272727129</v>
+        <v>33.04598272727117</v>
       </c>
       <c r="S41" t="n">
-        <v>11.9879064954959</v>
+        <v>11.98790649549586</v>
       </c>
       <c r="T41" t="n">
-        <v>2.302888016852805</v>
+        <v>2.302888016852797</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04208590322061091</v>
+        <v>0.04208590322061076</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.281474292589263</v>
+        <v>0.281474292589262</v>
       </c>
       <c r="H42" t="n">
-        <v>2.718449088954198</v>
+        <v>2.718449088954189</v>
       </c>
       <c r="I42" t="n">
-        <v>9.691110512393486</v>
+        <v>9.691110512393452</v>
       </c>
       <c r="J42" t="n">
-        <v>26.59314796783033</v>
+        <v>26.59314796783023</v>
       </c>
       <c r="K42" t="n">
-        <v>45.45192557131094</v>
+        <v>45.45192557131079</v>
       </c>
       <c r="L42" t="n">
-        <v>61.11572304662923</v>
+        <v>61.11572304662902</v>
       </c>
       <c r="M42" t="n">
-        <v>71.31916615298999</v>
+        <v>71.31916615298975</v>
       </c>
       <c r="N42" t="n">
-        <v>73.20677226425748</v>
+        <v>73.20677226425722</v>
       </c>
       <c r="O42" t="n">
-        <v>66.96989451793749</v>
+        <v>66.96989451793726</v>
       </c>
       <c r="P42" t="n">
-        <v>53.74924452083918</v>
+        <v>53.74924452083899</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.92994654174522</v>
+        <v>35.9299465417451</v>
       </c>
       <c r="R42" t="n">
-        <v>17.47609686795442</v>
+        <v>17.47609686795436</v>
       </c>
       <c r="S42" t="n">
-        <v>5.228261531208456</v>
+        <v>5.228261531208438</v>
       </c>
       <c r="T42" t="n">
-        <v>1.13453892495409</v>
+        <v>1.134538924954086</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0185180455650831</v>
+        <v>0.01851804556508303</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2359785915725342</v>
+        <v>0.2359785915725334</v>
       </c>
       <c r="H43" t="n">
-        <v>2.098064205072169</v>
+        <v>2.098064205072162</v>
       </c>
       <c r="I43" t="n">
-        <v>7.096519826563122</v>
+        <v>7.096519826563098</v>
       </c>
       <c r="J43" t="n">
-        <v>16.68368642417817</v>
+        <v>16.68368642417811</v>
       </c>
       <c r="K43" t="n">
-        <v>27.4164218208817</v>
+        <v>27.4164218208816</v>
       </c>
       <c r="L43" t="n">
-        <v>35.08358078706569</v>
+        <v>35.08358078706556</v>
       </c>
       <c r="M43" t="n">
-        <v>36.99071685895643</v>
+        <v>36.9907168589563</v>
       </c>
       <c r="N43" t="n">
-        <v>36.11116029036792</v>
+        <v>36.11116029036779</v>
       </c>
       <c r="O43" t="n">
-        <v>33.35450128881603</v>
+        <v>33.35450128881592</v>
       </c>
       <c r="P43" t="n">
-        <v>28.54053802073631</v>
+        <v>28.54053802073621</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.75998915431466</v>
+        <v>19.75998915431459</v>
       </c>
       <c r="R43" t="n">
-        <v>10.61045558107049</v>
+        <v>10.61045558107045</v>
       </c>
       <c r="S43" t="n">
-        <v>4.112463273132254</v>
+        <v>4.112463273132239</v>
       </c>
       <c r="T43" t="n">
-        <v>1.008272163991737</v>
+        <v>1.008272163991733</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01287155954032006</v>
+        <v>0.01287155954032002</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.526073790257636</v>
+        <v>0.5260737902576355</v>
       </c>
       <c r="H44" t="n">
-        <v>5.387653204476016</v>
+        <v>5.387653204476011</v>
       </c>
       <c r="I44" t="n">
-        <v>20.28145979890753</v>
+        <v>20.28145979890751</v>
       </c>
       <c r="J44" t="n">
-        <v>44.64985535587908</v>
+        <v>44.64985535587903</v>
       </c>
       <c r="K44" t="n">
-        <v>66.91855889748481</v>
+        <v>66.91855889748474</v>
       </c>
       <c r="L44" t="n">
-        <v>83.01838965608196</v>
+        <v>83.01838965608188</v>
       </c>
       <c r="M44" t="n">
-        <v>92.37395442357619</v>
+        <v>92.37395442357609</v>
       </c>
       <c r="N44" t="n">
-        <v>93.86866158014571</v>
+        <v>93.86866158014561</v>
       </c>
       <c r="O44" t="n">
-        <v>88.63751532827133</v>
+        <v>88.63751532827125</v>
       </c>
       <c r="P44" t="n">
-        <v>75.65006863128593</v>
+        <v>75.65006863128586</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.81005101768433</v>
+        <v>56.81005101768427</v>
       </c>
       <c r="R44" t="n">
-        <v>33.04598272727126</v>
+        <v>33.04598272727122</v>
       </c>
       <c r="S44" t="n">
-        <v>11.98790649549589</v>
+        <v>11.98790649549588</v>
       </c>
       <c r="T44" t="n">
-        <v>2.302888016852803</v>
+        <v>2.3028880168528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04208590322061087</v>
+        <v>0.04208590322061083</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2814742925892627</v>
+        <v>0.2814742925892624</v>
       </c>
       <c r="H45" t="n">
-        <v>2.718449088954196</v>
+        <v>2.718449088954193</v>
       </c>
       <c r="I45" t="n">
-        <v>9.691110512393477</v>
+        <v>9.691110512393466</v>
       </c>
       <c r="J45" t="n">
-        <v>26.5931479678303</v>
+        <v>26.59314796783028</v>
       </c>
       <c r="K45" t="n">
-        <v>45.45192557131091</v>
+        <v>45.45192557131086</v>
       </c>
       <c r="L45" t="n">
-        <v>61.11572304662918</v>
+        <v>61.11572304662911</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31916615298994</v>
+        <v>71.31916615298987</v>
       </c>
       <c r="N45" t="n">
-        <v>73.20677226425742</v>
+        <v>73.20677226425734</v>
       </c>
       <c r="O45" t="n">
-        <v>66.96989451793743</v>
+        <v>66.96989451793736</v>
       </c>
       <c r="P45" t="n">
-        <v>53.74924452083913</v>
+        <v>53.74924452083907</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.92994654174519</v>
+        <v>35.92994654174515</v>
       </c>
       <c r="R45" t="n">
-        <v>17.47609686795441</v>
+        <v>17.47609686795439</v>
       </c>
       <c r="S45" t="n">
-        <v>5.228261531208451</v>
+        <v>5.228261531208446</v>
       </c>
       <c r="T45" t="n">
-        <v>1.134538924954089</v>
+        <v>1.134538924954088</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01851804556508308</v>
+        <v>0.01851804556508306</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.235978591572534</v>
+        <v>0.2359785915725338</v>
       </c>
       <c r="H46" t="n">
-        <v>2.098064205072168</v>
+        <v>2.098064205072165</v>
       </c>
       <c r="I46" t="n">
-        <v>7.096519826563116</v>
+        <v>7.096519826563108</v>
       </c>
       <c r="J46" t="n">
-        <v>16.68368642417815</v>
+        <v>16.68368642417813</v>
       </c>
       <c r="K46" t="n">
-        <v>27.41642182088167</v>
+        <v>27.41642182088164</v>
       </c>
       <c r="L46" t="n">
-        <v>35.08358078706566</v>
+        <v>35.08358078706561</v>
       </c>
       <c r="M46" t="n">
-        <v>36.9907168589564</v>
+        <v>36.99071685895635</v>
       </c>
       <c r="N46" t="n">
-        <v>36.11116029036789</v>
+        <v>36.11116029036785</v>
       </c>
       <c r="O46" t="n">
-        <v>33.354501288816</v>
+        <v>33.35450128881597</v>
       </c>
       <c r="P46" t="n">
-        <v>28.54053802073629</v>
+        <v>28.54053802073625</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.75998915431465</v>
+        <v>19.75998915431462</v>
       </c>
       <c r="R46" t="n">
-        <v>10.61045558107048</v>
+        <v>10.61045558107047</v>
       </c>
       <c r="S46" t="n">
-        <v>4.11246327313225</v>
+        <v>4.112463273132246</v>
       </c>
       <c r="T46" t="n">
-        <v>1.008272163991736</v>
+        <v>1.008272163991735</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01287155954032005</v>
+        <v>0.01287155954032004</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.99057822131653</v>
+        <v>43.99057822131661</v>
       </c>
       <c r="K11" t="n">
-        <v>189.44218320264</v>
+        <v>189.4421832026401</v>
       </c>
       <c r="L11" t="n">
-        <v>287.5137981928126</v>
+        <v>287.5137981928127</v>
       </c>
       <c r="M11" t="n">
-        <v>335.2804518595308</v>
+        <v>335.280451859531</v>
       </c>
       <c r="N11" t="n">
-        <v>325.0317259619328</v>
+        <v>325.0317259619329</v>
       </c>
       <c r="O11" t="n">
-        <v>260.3239477053817</v>
+        <v>260.3239477053818</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8685542682412</v>
+        <v>184.86855426824</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.86959367639678</v>
+        <v>60.86959367639688</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.06113872185539</v>
+        <v>34.06113872185543</v>
       </c>
       <c r="K12" t="n">
         <v>186.1003690643926</v>
       </c>
       <c r="L12" t="n">
-        <v>311.6991618768492</v>
+        <v>311.6991618768493</v>
       </c>
       <c r="M12" t="n">
-        <v>417.0717493790218</v>
+        <v>417.0717493790219</v>
       </c>
       <c r="N12" t="n">
-        <v>28.57947308317202</v>
+        <v>426.1345981523902</v>
       </c>
       <c r="O12" t="n">
-        <v>337.5553682324026</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>254.3254766774016</v>
+        <v>194.3257198405853</v>
       </c>
       <c r="Q12" t="n">
         <v>117.9280960531572</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.04060678934675</v>
+        <v>50.04060678934677</v>
       </c>
       <c r="K13" t="n">
-        <v>134.8377773959958</v>
+        <v>134.8377773959959</v>
       </c>
       <c r="L13" t="n">
-        <v>194.7404763090224</v>
+        <v>194.7404763090225</v>
       </c>
       <c r="M13" t="n">
-        <v>209.3838901488124</v>
+        <v>209.3838901488125</v>
       </c>
       <c r="N13" t="n">
         <v>212.5039452479533</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1184746117345</v>
+        <v>190.1184746117346</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8583252123676</v>
+        <v>156.8583252123677</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.195054571414</v>
+        <v>62.19505457141402</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.99057822131663</v>
+        <v>43.99057822131662</v>
       </c>
       <c r="K14" t="n">
         <v>189.4421832026401</v>
       </c>
       <c r="L14" t="n">
-        <v>287.5137981928128</v>
+        <v>287.5137981928127</v>
       </c>
       <c r="M14" t="n">
-        <v>335.2804518595311</v>
+        <v>335.280451859531</v>
       </c>
       <c r="N14" t="n">
         <v>325.031725961933</v>
@@ -35665,7 +35665,7 @@
         <v>184.86855426824</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.86959367639691</v>
+        <v>60.8695936763969</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1003690643927</v>
+        <v>160.1617509494318</v>
       </c>
       <c r="L15" t="n">
         <v>311.6991618768493</v>
@@ -35735,16 +35735,16 @@
         <v>417.071749379022</v>
       </c>
       <c r="N15" t="n">
-        <v>400.1959800374296</v>
+        <v>426.1345981523902</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>254.3254766774018</v>
+        <v>254.3254766774017</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.9280960531573</v>
+        <v>117.9280960531572</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.04060678934679</v>
+        <v>50.04060678934677</v>
       </c>
       <c r="K16" t="n">
         <v>134.8377773959959</v>
@@ -35814,16 +35814,16 @@
         <v>209.3838901488125</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5039452479534</v>
+        <v>212.5039452479533</v>
       </c>
       <c r="O16" t="n">
         <v>190.1184746117346</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8583252123672</v>
+        <v>156.8583252123677</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.19505457141404</v>
+        <v>62.19505457141402</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.06113872185543</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>186.1003690643926</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>311.6991618768493</v>
       </c>
       <c r="M18" t="n">
-        <v>19.51662430980322</v>
+        <v>239.6781320960513</v>
       </c>
       <c r="N18" t="n">
         <v>426.1345981523903</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.06113872185543</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>160.1617509494319</v>
       </c>
       <c r="L21" t="n">
         <v>311.6991618768493</v>
@@ -36209,10 +36209,10 @@
         <v>417.071749379022</v>
       </c>
       <c r="N21" t="n">
-        <v>214.679842147564</v>
+        <v>426.1345981523903</v>
       </c>
       <c r="O21" t="n">
-        <v>337.5553682324028</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>254.3254766774017</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>34.06113872185543</v>
       </c>
       <c r="K24" t="n">
         <v>186.1003690643926</v>
@@ -36443,16 +36443,16 @@
         <v>311.6991618768493</v>
       </c>
       <c r="M24" t="n">
-        <v>417.071749379022</v>
+        <v>391.7701970403618</v>
       </c>
       <c r="N24" t="n">
-        <v>180.5687078581842</v>
+        <v>426.1345981523903</v>
       </c>
       <c r="O24" t="n">
         <v>337.5553682324028</v>
       </c>
       <c r="P24" t="n">
-        <v>254.3254766774017</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>154.7537444121542</v>
       </c>
       <c r="L28" t="n">
-        <v>166.4942981137093</v>
+        <v>214.6564433251808</v>
       </c>
       <c r="M28" t="n">
         <v>87.18812485586493</v>
@@ -36765,10 +36765,10 @@
         <v>232.4199122641117</v>
       </c>
       <c r="O28" t="n">
-        <v>210.034441627893</v>
+        <v>67.92270931878704</v>
       </c>
       <c r="P28" t="n">
-        <v>34.6625599194201</v>
+        <v>128.6121470170544</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>69.95657380550512</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7537444121542</v>
+        <v>12.6420121030483</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6564433251808</v>
+        <v>156.5384350297377</v>
       </c>
       <c r="M31" t="n">
         <v>87.18812485586493</v>
@@ -37005,10 +37005,10 @@
         <v>67.92270931878704</v>
       </c>
       <c r="P31" t="n">
-        <v>58.6555732115494</v>
+        <v>176.774292228526</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.11102158757237</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,10 +37084,10 @@
         <v>402.4356800144877</v>
       </c>
       <c r="P32" t="n">
-        <v>326.9802865773459</v>
+        <v>326.9802865773465</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.9813259855032</v>
+        <v>202.9813259855028</v>
       </c>
       <c r="R32" t="n">
         <v>33.30689233550002</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.95657380550506</v>
+        <v>11.83856551006285</v>
       </c>
       <c r="K34" t="n">
         <v>154.7537444121542</v>
@@ -37233,19 +37233,19 @@
         <v>72.5447110160749</v>
       </c>
       <c r="M34" t="n">
-        <v>229.2998571649708</v>
+        <v>87.18812485586493</v>
       </c>
       <c r="N34" t="n">
         <v>90.30817995500576</v>
       </c>
       <c r="O34" t="n">
-        <v>91.91572261091721</v>
+        <v>210.0344416278929</v>
       </c>
       <c r="P34" t="n">
         <v>176.774292228526</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.11102158757231</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>189.4421832026401</v>
       </c>
       <c r="L35" t="n">
-        <v>319.3073579032619</v>
+        <v>287.5137981928127</v>
       </c>
       <c r="M35" t="n">
         <v>335.280451859531</v>
@@ -37324,7 +37324,7 @@
         <v>184.86855426824</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.8695936763969</v>
+        <v>92.66315338684583</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>417.071749379022</v>
       </c>
       <c r="N36" t="n">
-        <v>372.0721946704701</v>
+        <v>434.164094099672</v>
       </c>
       <c r="O36" t="n">
         <v>337.5553682324028</v>
@@ -37403,7 +37403,7 @@
         <v>254.3254766774017</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9280960531572</v>
+        <v>55.83619662395472</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.99057822131662</v>
+        <v>48.99895398024186</v>
       </c>
       <c r="K38" t="n">
         <v>189.4421832026401</v>
@@ -37558,7 +37558,7 @@
         <v>260.3239477053819</v>
       </c>
       <c r="P38" t="n">
-        <v>189.8769300271652</v>
+        <v>184.86855426824</v>
       </c>
       <c r="Q38" t="n">
         <v>60.8695936763969</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.06113872185543</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>186.1003690643926</v>
@@ -37628,7 +37628,7 @@
         <v>311.6991618768493</v>
       </c>
       <c r="M39" t="n">
-        <v>43.28068807297065</v>
+        <v>331.6673034722276</v>
       </c>
       <c r="N39" t="n">
         <v>434.1640940996721</v>
@@ -37637,7 +37637,7 @@
         <v>337.5553682324028</v>
       </c>
       <c r="P39" t="n">
-        <v>254.3254766774017</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>117.9280960531572</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.9905782213167</v>
+        <v>43.99057822131654</v>
       </c>
       <c r="K41" t="n">
-        <v>189.4421832026402</v>
+        <v>189.44218320264</v>
       </c>
       <c r="L41" t="n">
-        <v>287.5137981928129</v>
+        <v>287.5137981928126</v>
       </c>
       <c r="M41" t="n">
-        <v>335.2804518595312</v>
+        <v>522.9003348029087</v>
       </c>
       <c r="N41" t="n">
-        <v>325.0317259619331</v>
+        <v>325.0317259619328</v>
       </c>
       <c r="O41" t="n">
-        <v>449.6001223460553</v>
+        <v>454.200992933425</v>
       </c>
       <c r="P41" t="n">
-        <v>378.7455994962835</v>
+        <v>184.8685542682399</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.869593676397</v>
+        <v>62.52588537369633</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.06113872185548</v>
+        <v>34.06113872185539</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1003690643927</v>
+        <v>186.1003690643926</v>
       </c>
       <c r="L42" t="n">
-        <v>311.6991618768494</v>
+        <v>311.6991618768492</v>
       </c>
       <c r="M42" t="n">
-        <v>417.0717493790221</v>
+        <v>385.1397700306102</v>
       </c>
       <c r="N42" t="n">
-        <v>411.732692951888</v>
+        <v>443.6646723003029</v>
       </c>
       <c r="O42" t="n">
-        <v>337.5553682324029</v>
+        <v>337.5553682324027</v>
       </c>
       <c r="P42" t="n">
-        <v>254.3254766774018</v>
+        <v>254.3254766774016</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.9280960531573</v>
+        <v>117.9280960531572</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.64201210304835</v>
+        <v>12.64201210304825</v>
       </c>
       <c r="L43" t="n">
-        <v>72.54471101607497</v>
+        <v>72.54471101607484</v>
       </c>
       <c r="M43" t="n">
-        <v>87.188124855865</v>
+        <v>87.18812485586486</v>
       </c>
       <c r="N43" t="n">
-        <v>90.30817995500581</v>
+        <v>90.70377576247998</v>
       </c>
       <c r="O43" t="n">
-        <v>67.9227093187871</v>
+        <v>67.92270931878699</v>
       </c>
       <c r="P43" t="n">
-        <v>34.66255991942015</v>
+        <v>34.66255991942005</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3955958074733198</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.934197158826873</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>43.99057822131666</v>
+        <v>233.2667528619931</v>
       </c>
       <c r="K44" t="n">
         <v>189.4421832026401</v>
       </c>
       <c r="L44" t="n">
-        <v>287.5137981928128</v>
+        <v>481.3908434208561</v>
       </c>
       <c r="M44" t="n">
-        <v>522.9003348029082</v>
+        <v>335.280451859531</v>
       </c>
       <c r="N44" t="n">
-        <v>325.031725961933</v>
+        <v>325.0317259619329</v>
       </c>
       <c r="O44" t="n">
-        <v>260.323947705382</v>
+        <v>260.3239477053818</v>
       </c>
       <c r="P44" t="n">
-        <v>371.4676940347531</v>
+        <v>184.86855426824</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.86959367639695</v>
+        <v>60.86959367639688</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.06113872185546</v>
+        <v>34.06113872185543</v>
       </c>
       <c r="K45" t="n">
-        <v>186.1003690643927</v>
+        <v>154.1683897159807</v>
       </c>
       <c r="L45" t="n">
-        <v>311.6991618768494</v>
+        <v>311.6991618768493</v>
       </c>
       <c r="M45" t="n">
-        <v>417.071749379022</v>
+        <v>417.0717493790219</v>
       </c>
       <c r="N45" t="n">
-        <v>411.7326929518886</v>
+        <v>443.664672300303</v>
       </c>
       <c r="O45" t="n">
-        <v>337.5553682324028</v>
+        <v>337.5553682324027</v>
       </c>
       <c r="P45" t="n">
-        <v>254.3254766774018</v>
+        <v>254.3254766774017</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.9280960531573</v>
+        <v>117.9280960531572</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.3955958074736644</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3955958074733988</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.64201210304832</v>
+        <v>12.64201210304829</v>
       </c>
       <c r="L46" t="n">
-        <v>72.54471101607494</v>
+        <v>72.5447110160749</v>
       </c>
       <c r="M46" t="n">
-        <v>87.18812485586497</v>
+        <v>87.18812485586491</v>
       </c>
       <c r="N46" t="n">
-        <v>90.30817995500578</v>
+        <v>90.30817995500574</v>
       </c>
       <c r="O46" t="n">
-        <v>67.92270931878707</v>
+        <v>67.92270931878703</v>
       </c>
       <c r="P46" t="n">
-        <v>34.66255991942013</v>
+        <v>34.66255991942009</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
